--- a/Bases_de_Dados_(2022-2024)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie D_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="479">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1081,6 +1081,54 @@
     <t>['40', '74', '44', '45+2', '45+6', '47', '55', '63', '69', '72']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['58', '65', '89']</t>
+  </si>
+  <si>
+    <t>['8', '10', '13', '21', '66', '70', '78', '82', '84']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['38', '45+4', '61', '79', '88', '90+3']</t>
+  </si>
+  <si>
+    <t>['5', '49']</t>
+  </si>
+  <si>
+    <t>['35', '47', '66', '81']</t>
+  </si>
+  <si>
+    <t>['52', '90+2']</t>
+  </si>
+  <si>
+    <t>['32', '78']</t>
+  </si>
+  <si>
+    <t>['14', '70', '88', '90+5', '90+7']</t>
+  </si>
+  <si>
+    <t>['52', '61', '82']</t>
+  </si>
+  <si>
+    <t>['45+4', '61', '78']</t>
+  </si>
+  <si>
+    <t>['19', '90+7']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['54', '82']</t>
+  </si>
+  <si>
+    <t>['59', '77']</t>
+  </si>
+  <si>
     <t>['22', '38']</t>
   </si>
   <si>
@@ -1121,9 +1169,6 @@
   </si>
   <si>
     <t>['72']</t>
-  </si>
-  <si>
-    <t>['46']</t>
   </si>
   <si>
     <t>['-1', '-1']</t>
@@ -1172,9 +1217,6 @@
   </si>
   <si>
     <t>['2', '19', '90']</t>
-  </si>
-  <si>
-    <t>['30']</t>
   </si>
   <si>
     <t>['26']</t>
@@ -1388,6 +1430,27 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['45+3', '90+2']</t>
+  </si>
+  <si>
+    <t>['11', '70']</t>
+  </si>
+  <si>
+    <t>['3', '23', '29', '37', '39']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['5', '72']</t>
+  </si>
+  <si>
+    <t>['27', '31', '42', '72']</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK385"/>
+  <dimension ref="A1:BK414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1993,7 +2056,7 @@
         <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2080,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT2">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2271,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT3">
         <v>0.83</v>
@@ -2462,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT4">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2653,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT5">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2844,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT6">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3035,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3139,7 +3202,7 @@
         <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -3226,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3330,7 +3393,7 @@
         <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -3417,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3521,7 +3584,7 @@
         <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3611,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3799,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT11">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3903,7 +3966,7 @@
         <v>137</v>
       </c>
       <c r="P12" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3990,10 +4053,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4181,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT13">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4285,7 +4348,7 @@
         <v>138</v>
       </c>
       <c r="P14" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4372,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT14">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4476,7 +4539,7 @@
         <v>139</v>
       </c>
       <c r="P15" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4563,10 +4626,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT15">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4754,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT16">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4858,7 +4921,7 @@
         <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4945,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT17">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5136,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT18">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5240,7 +5303,7 @@
         <v>143</v>
       </c>
       <c r="P19" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -5327,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT19">
         <v>0.5</v>
@@ -5518,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT20">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5622,7 +5685,7 @@
         <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5709,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -5900,10 +5963,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT22">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6091,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6282,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT24">
         <v>0.5</v>
@@ -6473,10 +6536,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT25">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6577,7 +6640,7 @@
         <v>149</v>
       </c>
       <c r="P26" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="Q26">
         <v>11</v>
@@ -6664,10 +6727,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT26">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6768,7 +6831,7 @@
         <v>150</v>
       </c>
       <c r="P27" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6855,10 +6918,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -7046,10 +7109,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7240,7 +7303,7 @@
         <v>3</v>
       </c>
       <c r="AT29">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7341,7 +7404,7 @@
         <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7428,10 +7491,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT30">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7622,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7810,10 +7873,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT32">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7914,7 +7977,7 @@
         <v>155</v>
       </c>
       <c r="P33" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -8004,7 +8067,7 @@
         <v>2.33</v>
       </c>
       <c r="AT33">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -8105,7 +8168,7 @@
         <v>135</v>
       </c>
       <c r="P34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q34">
         <v>13</v>
@@ -9633,7 +9696,7 @@
         <v>161</v>
       </c>
       <c r="P42" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="Q42">
         <v>-1</v>
@@ -10015,7 +10078,7 @@
         <v>163</v>
       </c>
       <c r="P44" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -10206,7 +10269,7 @@
         <v>164</v>
       </c>
       <c r="P45" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10397,7 +10460,7 @@
         <v>135</v>
       </c>
       <c r="P46" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10970,7 +11033,7 @@
         <v>167</v>
       </c>
       <c r="P49" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="Q49">
         <v>-1</v>
@@ -11161,7 +11224,7 @@
         <v>168</v>
       </c>
       <c r="P50" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -12307,7 +12370,7 @@
         <v>173</v>
       </c>
       <c r="P56" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="Q56">
         <v>-1</v>
@@ -12498,7 +12561,7 @@
         <v>174</v>
       </c>
       <c r="P57" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12689,7 +12752,7 @@
         <v>135</v>
       </c>
       <c r="P58" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12880,7 +12943,7 @@
         <v>175</v>
       </c>
       <c r="P59" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="Q59">
         <v>7</v>
@@ -13262,7 +13325,7 @@
         <v>176</v>
       </c>
       <c r="P61" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="Q61">
         <v>15</v>
@@ -14304,10 +14367,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT66">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU66">
         <v>1.4</v>
@@ -14495,10 +14558,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT67">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU67">
         <v>2.15</v>
@@ -14686,10 +14749,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT68">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU68">
         <v>1.26</v>
@@ -14790,7 +14853,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -15259,7 +15322,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT71">
         <v>0.5</v>
@@ -15453,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU72">
         <v>3.01</v>
@@ -15641,10 +15704,10 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU73">
         <v>1.76</v>
@@ -15832,10 +15895,10 @@
         <v>3</v>
       </c>
       <c r="AS74">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT74">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU74">
         <v>0</v>
@@ -15936,7 +15999,7 @@
         <v>185</v>
       </c>
       <c r="P75" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -16405,10 +16468,10 @@
         <v>3</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT77">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU77">
         <v>1.73</v>
@@ -16509,7 +16572,7 @@
         <v>187</v>
       </c>
       <c r="P78" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16596,10 +16659,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT78">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU78">
         <v>1.48</v>
@@ -16787,10 +16850,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT79">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU79">
         <v>1</v>
@@ -17169,10 +17232,10 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT81">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU81">
         <v>1.98</v>
@@ -17273,7 +17336,7 @@
         <v>190</v>
       </c>
       <c r="P82" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -17360,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT82">
         <v>0.83</v>
@@ -17655,7 +17718,7 @@
         <v>192</v>
       </c>
       <c r="P84" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17742,10 +17805,10 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT84">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.8</v>
@@ -17933,10 +17996,10 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU85">
         <v>0</v>
@@ -18037,7 +18100,7 @@
         <v>160</v>
       </c>
       <c r="P86" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -18124,10 +18187,10 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU86">
         <v>1.92</v>
@@ -18315,10 +18378,10 @@
         <v>0</v>
       </c>
       <c r="AS87">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT87">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU87">
         <v>1.79</v>
@@ -18506,7 +18569,7 @@
         <v>3</v>
       </c>
       <c r="AS88">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -18697,10 +18760,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT89">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU89">
         <v>1.23</v>
@@ -18888,10 +18951,10 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT90">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU90">
         <v>0.89</v>
@@ -18992,7 +19055,7 @@
         <v>195</v>
       </c>
       <c r="P91" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -19273,7 +19336,7 @@
         <v>3</v>
       </c>
       <c r="AT92">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU92">
         <v>1.66</v>
@@ -19461,10 +19524,10 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT93">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU93">
         <v>1.32</v>
@@ -19843,10 +19906,10 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT95">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU95">
         <v>1.88</v>
@@ -20037,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AT96">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU96">
         <v>1.79</v>
@@ -20228,7 +20291,7 @@
         <v>2.33</v>
       </c>
       <c r="AT97">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU97">
         <v>1.82</v>
@@ -20416,7 +20479,7 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT98">
         <v>1.5</v>
@@ -20520,7 +20583,7 @@
         <v>200</v>
       </c>
       <c r="P99" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20610,7 +20673,7 @@
         <v>2.67</v>
       </c>
       <c r="AT99">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU99">
         <v>1.58</v>
@@ -20711,7 +20774,7 @@
         <v>201</v>
       </c>
       <c r="P100" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20902,7 +20965,7 @@
         <v>202</v>
       </c>
       <c r="P101" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="Q101">
         <v>1</v>
@@ -20992,7 +21055,7 @@
         <v>2.5</v>
       </c>
       <c r="AT101">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU101">
         <v>1.72</v>
@@ -21180,7 +21243,7 @@
         <v>3</v>
       </c>
       <c r="AS102">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT102">
         <v>1.17</v>
@@ -21371,7 +21434,7 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT103">
         <v>0.17</v>
@@ -21562,7 +21625,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT104">
         <v>0.83</v>
@@ -21753,7 +21816,7 @@
         <v>0</v>
       </c>
       <c r="AS105">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT105">
         <v>1.33</v>
@@ -21944,7 +22007,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -22048,7 +22111,7 @@
         <v>206</v>
       </c>
       <c r="P107" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22138,7 +22201,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU107">
         <v>2.25</v>
@@ -22329,7 +22392,7 @@
         <v>2.17</v>
       </c>
       <c r="AT108">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -22430,7 +22493,7 @@
         <v>208</v>
       </c>
       <c r="P109" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -22517,7 +22580,7 @@
         <v>3</v>
       </c>
       <c r="AS109">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22708,7 +22771,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT110">
         <v>1.33</v>
@@ -22902,7 +22965,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>2.35</v>
@@ -23003,7 +23066,7 @@
         <v>211</v>
       </c>
       <c r="P112" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -23093,7 +23156,7 @@
         <v>0.83</v>
       </c>
       <c r="AT112">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU112">
         <v>0.96</v>
@@ -23284,7 +23347,7 @@
         <v>1.5</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU113">
         <v>1.94</v>
@@ -23472,7 +23535,7 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT114">
         <v>1</v>
@@ -23663,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="AS115">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT115">
         <v>0</v>
@@ -23857,7 +23920,7 @@
         <v>1.83</v>
       </c>
       <c r="AT116">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU116">
         <v>0.95</v>
@@ -24045,7 +24108,7 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -24239,7 +24302,7 @@
         <v>1.83</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU118">
         <v>2.51</v>
@@ -24531,7 +24594,7 @@
         <v>216</v>
       </c>
       <c r="P120" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24621,7 +24684,7 @@
         <v>2.67</v>
       </c>
       <c r="AT120">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU120">
         <v>1.74</v>
@@ -24722,7 +24785,7 @@
         <v>217</v>
       </c>
       <c r="P121" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24809,7 +24872,7 @@
         <v>0</v>
       </c>
       <c r="AS121">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT121">
         <v>0.83</v>
@@ -25000,7 +25063,7 @@
         <v>3</v>
       </c>
       <c r="AS122">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT122">
         <v>1.17</v>
@@ -25194,7 +25257,7 @@
         <v>0.67</v>
       </c>
       <c r="AT123">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU123">
         <v>0.83</v>
@@ -25295,7 +25358,7 @@
         <v>219</v>
       </c>
       <c r="P124" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25382,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="AS124">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT124">
         <v>0.33</v>
@@ -25576,7 +25639,7 @@
         <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU125">
         <v>0.83</v>
@@ -25767,7 +25830,7 @@
         <v>2</v>
       </c>
       <c r="AT126">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU126">
         <v>0</v>
@@ -26149,7 +26212,7 @@
         <v>2.67</v>
       </c>
       <c r="AT128">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU128">
         <v>1.61</v>
@@ -26337,7 +26400,7 @@
         <v>0</v>
       </c>
       <c r="AS129">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT129">
         <v>0.5</v>
@@ -26632,7 +26695,7 @@
         <v>135</v>
       </c>
       <c r="P131" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -27014,7 +27077,7 @@
         <v>226</v>
       </c>
       <c r="P133" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -27101,10 +27164,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT133">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU133">
         <v>1.86</v>
@@ -27292,10 +27355,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT134">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -27483,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="AS135">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT135">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU135">
         <v>1.22</v>
@@ -27674,10 +27737,10 @@
         <v>0</v>
       </c>
       <c r="AS136">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT136">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU136">
         <v>1.51</v>
@@ -27778,7 +27841,7 @@
         <v>135</v>
       </c>
       <c r="P137" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="Q137">
         <v>12</v>
@@ -27865,10 +27928,10 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT137">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU137">
         <v>1.79</v>
@@ -28059,7 +28122,7 @@
         <v>1</v>
       </c>
       <c r="AT138">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU138">
         <v>2.22</v>
@@ -28351,7 +28414,7 @@
         <v>229</v>
       </c>
       <c r="P140" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28629,7 +28692,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT141">
         <v>1</v>
@@ -28820,10 +28883,10 @@
         <v>0</v>
       </c>
       <c r="AS142">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT142">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU142">
         <v>2.4</v>
@@ -29011,10 +29074,10 @@
         <v>1.5</v>
       </c>
       <c r="AS143">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT143">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU143">
         <v>1.68</v>
@@ -29115,7 +29178,7 @@
         <v>135</v>
       </c>
       <c r="P144" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -29202,10 +29265,10 @@
         <v>1.5</v>
       </c>
       <c r="AS144">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT144">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU144">
         <v>1.22</v>
@@ -29584,10 +29647,10 @@
         <v>1.5</v>
       </c>
       <c r="AS146">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU146">
         <v>1.98</v>
@@ -29775,10 +29838,10 @@
         <v>2</v>
       </c>
       <c r="AS147">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT147">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU147">
         <v>2.08</v>
@@ -29966,10 +30029,10 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT148">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU148">
         <v>1.55</v>
@@ -30157,7 +30220,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT149">
         <v>0.5</v>
@@ -30348,10 +30411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS150">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT150">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU150">
         <v>2.55</v>
@@ -30730,10 +30793,10 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT152">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU152">
         <v>1.47</v>
@@ -30921,10 +30984,10 @@
         <v>0</v>
       </c>
       <c r="AS153">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT153">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU153">
         <v>1.7</v>
@@ -31112,10 +31175,10 @@
         <v>0.5</v>
       </c>
       <c r="AS154">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT154">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU154">
         <v>1.83</v>
@@ -31303,10 +31366,10 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT155">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU155">
         <v>1.54</v>
@@ -31407,7 +31470,7 @@
         <v>237</v>
       </c>
       <c r="P156" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -31494,10 +31557,10 @@
         <v>0</v>
       </c>
       <c r="AS156">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT156">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU156">
         <v>1.6</v>
@@ -31598,7 +31661,7 @@
         <v>238</v>
       </c>
       <c r="P157" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Q157">
         <v>5</v>
@@ -31688,7 +31751,7 @@
         <v>2.33</v>
       </c>
       <c r="AT157">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU157">
         <v>1.52</v>
@@ -31789,7 +31852,7 @@
         <v>239</v>
       </c>
       <c r="P158" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -31980,7 +32043,7 @@
         <v>153</v>
       </c>
       <c r="P159" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="Q159">
         <v>10</v>
@@ -32070,7 +32133,7 @@
         <v>1</v>
       </c>
       <c r="AT159">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU159">
         <v>1.65</v>
@@ -32171,7 +32234,7 @@
         <v>135</v>
       </c>
       <c r="P160" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -32258,10 +32321,10 @@
         <v>0.5</v>
       </c>
       <c r="AS160">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT160">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU160">
         <v>1.57</v>
@@ -32449,7 +32512,7 @@
         <v>0</v>
       </c>
       <c r="AS161">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT161">
         <v>0.5</v>
@@ -32831,7 +32894,7 @@
         <v>1.5</v>
       </c>
       <c r="AS163">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT163">
         <v>1.17</v>
@@ -33025,7 +33088,7 @@
         <v>1</v>
       </c>
       <c r="AT164">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU164">
         <v>1.5</v>
@@ -33213,7 +33276,7 @@
         <v>1</v>
       </c>
       <c r="AS165">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT165">
         <v>1</v>
@@ -33407,7 +33470,7 @@
         <v>1.83</v>
       </c>
       <c r="AT166">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU166">
         <v>2.27</v>
@@ -33598,7 +33661,7 @@
         <v>2.33</v>
       </c>
       <c r="AT167">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU167">
         <v>1.35</v>
@@ -33699,7 +33762,7 @@
         <v>135</v>
       </c>
       <c r="P168" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33786,7 +33849,7 @@
         <v>1.5</v>
       </c>
       <c r="AS168">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT168">
         <v>1.67</v>
@@ -33890,7 +33953,7 @@
         <v>243</v>
       </c>
       <c r="P169" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="Q169">
         <v>8</v>
@@ -33980,7 +34043,7 @@
         <v>1.33</v>
       </c>
       <c r="AT169">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU169">
         <v>1.66</v>
@@ -34081,7 +34144,7 @@
         <v>244</v>
       </c>
       <c r="P170" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -34171,7 +34234,7 @@
         <v>2.17</v>
       </c>
       <c r="AT170">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU170">
         <v>2.25</v>
@@ -34359,7 +34422,7 @@
         <v>2</v>
       </c>
       <c r="AS171">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT171">
         <v>1.17</v>
@@ -34463,7 +34526,7 @@
         <v>246</v>
       </c>
       <c r="P172" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34553,7 +34616,7 @@
         <v>2.67</v>
       </c>
       <c r="AT172">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU172">
         <v>1.77</v>
@@ -34744,7 +34807,7 @@
         <v>2</v>
       </c>
       <c r="AT173">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU173">
         <v>2.33</v>
@@ -34845,7 +34908,7 @@
         <v>135</v>
       </c>
       <c r="P174" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -35036,7 +35099,7 @@
         <v>135</v>
       </c>
       <c r="P175" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35126,7 +35189,7 @@
         <v>1.83</v>
       </c>
       <c r="AT175">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU175">
         <v>1.44</v>
@@ -35314,7 +35377,7 @@
         <v>2</v>
       </c>
       <c r="AS176">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT176">
         <v>1.17</v>
@@ -35418,7 +35481,7 @@
         <v>249</v>
       </c>
       <c r="P177" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35505,7 +35568,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT177">
         <v>0.67</v>
@@ -35609,7 +35672,7 @@
         <v>135</v>
       </c>
       <c r="P178" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35699,7 +35762,7 @@
         <v>1.17</v>
       </c>
       <c r="AT178">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU178">
         <v>1.77</v>
@@ -35800,7 +35863,7 @@
         <v>135</v>
       </c>
       <c r="P179" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="Q179">
         <v>19</v>
@@ -35890,7 +35953,7 @@
         <v>1</v>
       </c>
       <c r="AT179">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU179">
         <v>1.74</v>
@@ -35991,7 +36054,7 @@
         <v>250</v>
       </c>
       <c r="P180" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -36078,7 +36141,7 @@
         <v>0</v>
       </c>
       <c r="AS180">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT180">
         <v>1.17</v>
@@ -36269,7 +36332,7 @@
         <v>0</v>
       </c>
       <c r="AS181">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT181">
         <v>0</v>
@@ -36460,7 +36523,7 @@
         <v>1</v>
       </c>
       <c r="AS182">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT182">
         <v>1</v>
@@ -36651,7 +36714,7 @@
         <v>1.5</v>
       </c>
       <c r="AS183">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT183">
         <v>1.33</v>
@@ -36845,7 +36908,7 @@
         <v>1.83</v>
       </c>
       <c r="AT184">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU184">
         <v>1.55</v>
@@ -36946,7 +37009,7 @@
         <v>253</v>
       </c>
       <c r="P185" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -37033,7 +37096,7 @@
         <v>0.5</v>
       </c>
       <c r="AS185">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT185">
         <v>1</v>
@@ -37137,7 +37200,7 @@
         <v>254</v>
       </c>
       <c r="P186" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37227,7 +37290,7 @@
         <v>1.83</v>
       </c>
       <c r="AT186">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU186">
         <v>1.81</v>
@@ -37609,7 +37672,7 @@
         <v>1</v>
       </c>
       <c r="AT188">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU188">
         <v>1.26</v>
@@ -37797,7 +37860,7 @@
         <v>0.5</v>
       </c>
       <c r="AS189">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT189">
         <v>1</v>
@@ -38092,7 +38155,7 @@
         <v>257</v>
       </c>
       <c r="P191" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38179,7 +38242,7 @@
         <v>2</v>
       </c>
       <c r="AS191">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT191">
         <v>0.67</v>
@@ -38373,7 +38436,7 @@
         <v>2</v>
       </c>
       <c r="AT192">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU192">
         <v>1.21</v>
@@ -38561,7 +38624,7 @@
         <v>1.5</v>
       </c>
       <c r="AS193">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT193">
         <v>1.17</v>
@@ -38755,7 +38818,7 @@
         <v>2.5</v>
       </c>
       <c r="AT194">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU194">
         <v>1.84</v>
@@ -38856,7 +38919,7 @@
         <v>260</v>
       </c>
       <c r="P195" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="Q195">
         <v>12</v>
@@ -38943,7 +39006,7 @@
         <v>0</v>
       </c>
       <c r="AS195">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT195">
         <v>0.17</v>
@@ -39137,7 +39200,7 @@
         <v>1.83</v>
       </c>
       <c r="AT196">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU196">
         <v>1.08</v>
@@ -39328,7 +39391,7 @@
         <v>1.83</v>
       </c>
       <c r="AT197">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU197">
         <v>1.57</v>
@@ -39429,7 +39492,7 @@
         <v>263</v>
       </c>
       <c r="P198" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39707,7 +39770,7 @@
         <v>2</v>
       </c>
       <c r="AS199">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT199">
         <v>1.17</v>
@@ -39901,7 +39964,7 @@
         <v>2.17</v>
       </c>
       <c r="AT200">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU200">
         <v>2.34</v>
@@ -40089,7 +40152,7 @@
         <v>0</v>
       </c>
       <c r="AS201">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT201">
         <v>0.17</v>
@@ -40283,7 +40346,7 @@
         <v>1.33</v>
       </c>
       <c r="AT202">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU202">
         <v>0.77</v>
@@ -40474,7 +40537,7 @@
         <v>1.67</v>
       </c>
       <c r="AT203">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU203">
         <v>1.71</v>
@@ -40665,7 +40728,7 @@
         <v>0.83</v>
       </c>
       <c r="AT204">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU204">
         <v>1.13</v>
@@ -40853,7 +40916,7 @@
         <v>0.5</v>
       </c>
       <c r="AS205">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT205">
         <v>0.33</v>
@@ -41047,7 +41110,7 @@
         <v>1.5</v>
       </c>
       <c r="AT206">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU206">
         <v>1.66</v>
@@ -41339,7 +41402,7 @@
         <v>271</v>
       </c>
       <c r="P208" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="Q208">
         <v>13</v>
@@ -41426,7 +41489,7 @@
         <v>0.5</v>
       </c>
       <c r="AS208">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT208">
         <v>0.33</v>
@@ -41530,7 +41593,7 @@
         <v>135</v>
       </c>
       <c r="P209" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41617,7 +41680,7 @@
         <v>0.5</v>
       </c>
       <c r="AS209">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT209">
         <v>0.83</v>
@@ -41721,7 +41784,7 @@
         <v>272</v>
       </c>
       <c r="P210" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -41808,7 +41871,7 @@
         <v>1</v>
       </c>
       <c r="AS210">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT210">
         <v>2</v>
@@ -42002,7 +42065,7 @@
         <v>2</v>
       </c>
       <c r="AT211">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU211">
         <v>1.88</v>
@@ -42103,7 +42166,7 @@
         <v>273</v>
       </c>
       <c r="P212" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -42193,7 +42256,7 @@
         <v>2</v>
       </c>
       <c r="AT212">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU212">
         <v>0</v>
@@ -42381,7 +42444,7 @@
         <v>0</v>
       </c>
       <c r="AS213">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT213">
         <v>0.67</v>
@@ -42766,7 +42829,7 @@
         <v>0.67</v>
       </c>
       <c r="AT215">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU215">
         <v>0.77</v>
@@ -42867,7 +42930,7 @@
         <v>135</v>
       </c>
       <c r="P216" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -42954,7 +43017,7 @@
         <v>0.5</v>
       </c>
       <c r="AS216">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT216">
         <v>1.5</v>
@@ -43148,7 +43211,7 @@
         <v>2.67</v>
       </c>
       <c r="AT217">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU217">
         <v>1.58</v>
@@ -43336,7 +43399,7 @@
         <v>2</v>
       </c>
       <c r="AS218">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT218">
         <v>1</v>
@@ -43527,7 +43590,7 @@
         <v>0</v>
       </c>
       <c r="AS219">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT219">
         <v>0.5</v>
@@ -43909,7 +43972,7 @@
         <v>3</v>
       </c>
       <c r="AS221">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT221">
         <v>2</v>
@@ -44103,7 +44166,7 @@
         <v>2</v>
       </c>
       <c r="AT222">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU222">
         <v>1.97</v>
@@ -44291,7 +44354,7 @@
         <v>0.5</v>
       </c>
       <c r="AS223">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT223">
         <v>0.5</v>
@@ -44485,7 +44548,7 @@
         <v>1.5</v>
       </c>
       <c r="AT224">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU224">
         <v>1.8</v>
@@ -44673,7 +44736,7 @@
         <v>0.5</v>
       </c>
       <c r="AS225">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT225">
         <v>0.67</v>
@@ -44777,7 +44840,7 @@
         <v>279</v>
       </c>
       <c r="P226" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="Q226">
         <v>2</v>
@@ -44864,7 +44927,7 @@
         <v>1</v>
       </c>
       <c r="AS226">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT226">
         <v>0.67</v>
@@ -45055,7 +45118,7 @@
         <v>0.33</v>
       </c>
       <c r="AS227">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT227">
         <v>0.83</v>
@@ -45249,7 +45312,7 @@
         <v>1.83</v>
       </c>
       <c r="AT228">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU228">
         <v>2.44</v>
@@ -45350,7 +45413,7 @@
         <v>135</v>
       </c>
       <c r="P229" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -45440,7 +45503,7 @@
         <v>1</v>
       </c>
       <c r="AT229">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU229">
         <v>1.85</v>
@@ -45628,7 +45691,7 @@
         <v>2</v>
       </c>
       <c r="AS230">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT230">
         <v>1.67</v>
@@ -45819,7 +45882,7 @@
         <v>1</v>
       </c>
       <c r="AS231">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT231">
         <v>1</v>
@@ -46013,7 +46076,7 @@
         <v>2.33</v>
       </c>
       <c r="AT232">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU232">
         <v>1.69</v>
@@ -46114,7 +46177,7 @@
         <v>135</v>
       </c>
       <c r="P233" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="Q233">
         <v>16</v>
@@ -46204,7 +46267,7 @@
         <v>1.33</v>
       </c>
       <c r="AT233">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU233">
         <v>2.1</v>
@@ -46496,7 +46559,7 @@
         <v>135</v>
       </c>
       <c r="P235" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46586,7 +46649,7 @@
         <v>0.5</v>
       </c>
       <c r="AT235">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU235">
         <v>1.4</v>
@@ -46777,7 +46840,7 @@
         <v>2.67</v>
       </c>
       <c r="AT236">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU236">
         <v>1.69</v>
@@ -46965,7 +47028,7 @@
         <v>1.33</v>
       </c>
       <c r="AS237">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT237">
         <v>0.67</v>
@@ -47156,7 +47219,7 @@
         <v>1</v>
       </c>
       <c r="AS238">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT238">
         <v>1.17</v>
@@ -47350,7 +47413,7 @@
         <v>1.83</v>
       </c>
       <c r="AT239">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU239">
         <v>1.55</v>
@@ -47538,7 +47601,7 @@
         <v>1.33</v>
       </c>
       <c r="AS240">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT240">
         <v>1</v>
@@ -47642,7 +47705,7 @@
         <v>135</v>
       </c>
       <c r="P241" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -47729,7 +47792,7 @@
         <v>0.67</v>
       </c>
       <c r="AS241">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT241">
         <v>1</v>
@@ -47920,7 +47983,7 @@
         <v>1.33</v>
       </c>
       <c r="AS242">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT242">
         <v>1.17</v>
@@ -48114,7 +48177,7 @@
         <v>2</v>
       </c>
       <c r="AT243">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU243">
         <v>1.38</v>
@@ -48406,7 +48469,7 @@
         <v>135</v>
       </c>
       <c r="P245" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="Q245">
         <v>1</v>
@@ -48597,7 +48660,7 @@
         <v>289</v>
       </c>
       <c r="P246" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="Q246">
         <v>9</v>
@@ -48687,7 +48750,7 @@
         <v>1.83</v>
       </c>
       <c r="AT246">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU246">
         <v>1.79</v>
@@ -48875,7 +48938,7 @@
         <v>0</v>
       </c>
       <c r="AS247">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT247">
         <v>0.17</v>
@@ -49069,7 +49132,7 @@
         <v>1.83</v>
       </c>
       <c r="AT248">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU248">
         <v>1.69</v>
@@ -49170,7 +49233,7 @@
         <v>290</v>
       </c>
       <c r="P249" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="Q249">
         <v>6</v>
@@ -49257,7 +49320,7 @@
         <v>1.33</v>
       </c>
       <c r="AS249">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT249">
         <v>1.17</v>
@@ -49451,7 +49514,7 @@
         <v>2.67</v>
       </c>
       <c r="AT250">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU250">
         <v>1.49</v>
@@ -49552,7 +49615,7 @@
         <v>135</v>
       </c>
       <c r="P251" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="Q251">
         <v>7</v>
@@ -49642,7 +49705,7 @@
         <v>1</v>
       </c>
       <c r="AT251">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU251">
         <v>1.31</v>
@@ -49830,7 +49893,7 @@
         <v>1.67</v>
       </c>
       <c r="AS252">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT252">
         <v>1.17</v>
@@ -50021,7 +50084,7 @@
         <v>0</v>
       </c>
       <c r="AS253">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT253">
         <v>0</v>
@@ -50125,7 +50188,7 @@
         <v>270</v>
       </c>
       <c r="P254" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50215,7 +50278,7 @@
         <v>1.17</v>
       </c>
       <c r="AT254">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU254">
         <v>1.76</v>
@@ -50316,7 +50379,7 @@
         <v>293</v>
       </c>
       <c r="P255" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="Q255">
         <v>10</v>
@@ -50406,7 +50469,7 @@
         <v>1</v>
       </c>
       <c r="AT255">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU255">
         <v>2.13</v>
@@ -50594,7 +50657,7 @@
         <v>1.33</v>
       </c>
       <c r="AS256">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT256">
         <v>1.17</v>
@@ -50889,7 +50952,7 @@
         <v>135</v>
       </c>
       <c r="P258" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -50976,7 +51039,7 @@
         <v>1.33</v>
       </c>
       <c r="AS258">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT258">
         <v>1.5</v>
@@ -51080,7 +51143,7 @@
         <v>296</v>
       </c>
       <c r="P259" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51170,7 +51233,7 @@
         <v>1.5</v>
       </c>
       <c r="AT259">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU259">
         <v>1.54</v>
@@ -51361,7 +51424,7 @@
         <v>1.83</v>
       </c>
       <c r="AT260">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU260">
         <v>1.33</v>
@@ -51549,7 +51612,7 @@
         <v>1.33</v>
       </c>
       <c r="AS261">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT261">
         <v>1.5</v>
@@ -51743,7 +51806,7 @@
         <v>1.67</v>
       </c>
       <c r="AT262">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU262">
         <v>1.56</v>
@@ -51934,7 +51997,7 @@
         <v>1.67</v>
       </c>
       <c r="AT263">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU263">
         <v>1.19</v>
@@ -52122,7 +52185,7 @@
         <v>0.67</v>
       </c>
       <c r="AS264">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT264">
         <v>0.5</v>
@@ -52316,7 +52379,7 @@
         <v>1.33</v>
       </c>
       <c r="AT265">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU265">
         <v>1.18</v>
@@ -52417,7 +52480,7 @@
         <v>299</v>
       </c>
       <c r="P266" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="Q266">
         <v>2</v>
@@ -52698,7 +52761,7 @@
         <v>0.83</v>
       </c>
       <c r="AT267">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU267">
         <v>1.39</v>
@@ -52886,7 +52949,7 @@
         <v>1.33</v>
       </c>
       <c r="AS268">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT268">
         <v>0.83</v>
@@ -53077,7 +53140,7 @@
         <v>2.33</v>
       </c>
       <c r="AS269">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT269">
         <v>2</v>
@@ -53268,7 +53331,7 @@
         <v>1.67</v>
       </c>
       <c r="AS270">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT270">
         <v>1.33</v>
@@ -53462,7 +53525,7 @@
         <v>2.67</v>
       </c>
       <c r="AT271">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU271">
         <v>1.81</v>
@@ -53563,7 +53626,7 @@
         <v>302</v>
       </c>
       <c r="P272" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="Q272">
         <v>5</v>
@@ -53650,7 +53713,7 @@
         <v>0.33</v>
       </c>
       <c r="AS272">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT272">
         <v>0.33</v>
@@ -53945,7 +54008,7 @@
         <v>135</v>
       </c>
       <c r="P274" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54032,7 +54095,7 @@
         <v>0</v>
       </c>
       <c r="AS274">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT274">
         <v>0.67</v>
@@ -54223,7 +54286,7 @@
         <v>0</v>
       </c>
       <c r="AS275">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT275">
         <v>0.5</v>
@@ -54327,7 +54390,7 @@
         <v>213</v>
       </c>
       <c r="P276" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="Q276">
         <v>11</v>
@@ -54417,7 +54480,7 @@
         <v>2.67</v>
       </c>
       <c r="AT276">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU276">
         <v>1.77</v>
@@ -54608,7 +54671,7 @@
         <v>2</v>
       </c>
       <c r="AT277">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU277">
         <v>1.55</v>
@@ -54796,7 +54859,7 @@
         <v>0</v>
       </c>
       <c r="AS278">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT278">
         <v>0.17</v>
@@ -54987,7 +55050,7 @@
         <v>1.67</v>
       </c>
       <c r="AS279">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT279">
         <v>1</v>
@@ -55369,7 +55432,7 @@
         <v>0.67</v>
       </c>
       <c r="AS281">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT281">
         <v>0.67</v>
@@ -55473,7 +55536,7 @@
         <v>135</v>
       </c>
       <c r="P282" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="Q282">
         <v>2</v>
@@ -55560,7 +55623,7 @@
         <v>1</v>
       </c>
       <c r="AS282">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT282">
         <v>2</v>
@@ -55754,7 +55817,7 @@
         <v>0.67</v>
       </c>
       <c r="AT283">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU283">
         <v>0.79</v>
@@ -55945,7 +56008,7 @@
         <v>2</v>
       </c>
       <c r="AT284">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU284">
         <v>1.67</v>
@@ -56136,7 +56199,7 @@
         <v>2</v>
       </c>
       <c r="AT285">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU285">
         <v>2.07</v>
@@ -56324,7 +56387,7 @@
         <v>0.33</v>
       </c>
       <c r="AS286">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT286">
         <v>0.33</v>
@@ -56518,7 +56581,7 @@
         <v>2.5</v>
       </c>
       <c r="AT287">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU287">
         <v>2.09</v>
@@ -56900,7 +56963,7 @@
         <v>2.17</v>
       </c>
       <c r="AT289">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU289">
         <v>2.46</v>
@@ -57088,7 +57151,7 @@
         <v>1</v>
       </c>
       <c r="AS290">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT290">
         <v>0.83</v>
@@ -57852,10 +57915,10 @@
         <v>1.4</v>
       </c>
       <c r="AS294">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT294">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU294">
         <v>1.9</v>
@@ -57956,7 +58019,7 @@
         <v>302</v>
       </c>
       <c r="P295" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="Q295">
         <v>7</v>
@@ -58529,7 +58592,7 @@
         <v>314</v>
       </c>
       <c r="P298" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="Q298">
         <v>5</v>
@@ -58911,7 +58974,7 @@
         <v>135</v>
       </c>
       <c r="P300" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="Q300">
         <v>5</v>
@@ -58998,10 +59061,10 @@
         <v>1</v>
       </c>
       <c r="AS300">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT300">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU300">
         <v>1.83</v>
@@ -59102,7 +59165,7 @@
         <v>135</v>
       </c>
       <c r="P301" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="Q301">
         <v>3</v>
@@ -59484,7 +59547,7 @@
         <v>315</v>
       </c>
       <c r="P303" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="Q303">
         <v>9</v>
@@ -59571,10 +59634,10 @@
         <v>1.2</v>
       </c>
       <c r="AS303">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT303">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU303">
         <v>1.26</v>
@@ -60248,7 +60311,7 @@
         <v>135</v>
       </c>
       <c r="P307" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60717,10 +60780,10 @@
         <v>0.8</v>
       </c>
       <c r="AS309">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT309">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU309">
         <v>1.38</v>
@@ -61203,7 +61266,7 @@
         <v>319</v>
       </c>
       <c r="P312" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="Q312">
         <v>0</v>
@@ -61585,7 +61648,7 @@
         <v>198</v>
       </c>
       <c r="P314" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="Q314">
         <v>1</v>
@@ -61776,7 +61839,7 @@
         <v>320</v>
       </c>
       <c r="P315" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -61863,10 +61926,10 @@
         <v>1.4</v>
       </c>
       <c r="AS315">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT315">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU315">
         <v>1.48</v>
@@ -61967,7 +62030,7 @@
         <v>321</v>
       </c>
       <c r="P316" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="Q316">
         <v>6</v>
@@ -62057,7 +62120,7 @@
         <v>3</v>
       </c>
       <c r="AT316">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU316">
         <v>2.08</v>
@@ -62731,7 +62794,7 @@
         <v>323</v>
       </c>
       <c r="P320" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="Q320">
         <v>5</v>
@@ -62818,10 +62881,10 @@
         <v>0.4</v>
       </c>
       <c r="AS320">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT320">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU320">
         <v>1.71</v>
@@ -63113,7 +63176,7 @@
         <v>163</v>
       </c>
       <c r="P322" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="Q322">
         <v>10</v>
@@ -63203,7 +63266,7 @@
         <v>1.33</v>
       </c>
       <c r="AT322">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU322">
         <v>1.26</v>
@@ -63391,7 +63454,7 @@
         <v>0.8</v>
       </c>
       <c r="AS323">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT323">
         <v>1.17</v>
@@ -63585,7 +63648,7 @@
         <v>1.83</v>
       </c>
       <c r="AT324">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU324">
         <v>1.67</v>
@@ -63776,7 +63839,7 @@
         <v>2.67</v>
       </c>
       <c r="AT325">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU325">
         <v>2.11</v>
@@ -63967,7 +64030,7 @@
         <v>1.5</v>
       </c>
       <c r="AT326">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU326">
         <v>1.54</v>
@@ -64158,7 +64221,7 @@
         <v>1.33</v>
       </c>
       <c r="AT327">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU327">
         <v>2.26</v>
@@ -64349,7 +64412,7 @@
         <v>0.5</v>
       </c>
       <c r="AT328">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU328">
         <v>1.59</v>
@@ -64540,7 +64603,7 @@
         <v>1.67</v>
       </c>
       <c r="AT329">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU329">
         <v>1.62</v>
@@ -64641,7 +64704,7 @@
         <v>265</v>
       </c>
       <c r="P330" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="Q330">
         <v>6</v>
@@ -64731,7 +64794,7 @@
         <v>2</v>
       </c>
       <c r="AT330">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU330">
         <v>2.27</v>
@@ -64919,7 +64982,7 @@
         <v>0.2</v>
       </c>
       <c r="AS331">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT331">
         <v>0.17</v>
@@ -65113,7 +65176,7 @@
         <v>2.33</v>
       </c>
       <c r="AT332">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU332">
         <v>2.09</v>
@@ -65304,7 +65367,7 @@
         <v>1.17</v>
       </c>
       <c r="AT333">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU333">
         <v>1.87</v>
@@ -65405,7 +65468,7 @@
         <v>332</v>
       </c>
       <c r="P334" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="Q334">
         <v>6</v>
@@ -65492,7 +65555,7 @@
         <v>1</v>
       </c>
       <c r="AS334">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT334">
         <v>1.17</v>
@@ -65686,7 +65749,7 @@
         <v>1</v>
       </c>
       <c r="AT335">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU335">
         <v>1.44</v>
@@ -66068,7 +66131,7 @@
         <v>1.83</v>
       </c>
       <c r="AT337">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU337">
         <v>1.78</v>
@@ -66256,7 +66319,7 @@
         <v>2</v>
       </c>
       <c r="AS338">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT338">
         <v>1.67</v>
@@ -66360,7 +66423,7 @@
         <v>334</v>
       </c>
       <c r="P339" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q339">
         <v>9</v>
@@ -66447,7 +66510,7 @@
         <v>0</v>
       </c>
       <c r="AS339">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT339">
         <v>0.17</v>
@@ -66551,7 +66614,7 @@
         <v>335</v>
       </c>
       <c r="P340" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="Q340">
         <v>14</v>
@@ -66638,7 +66701,7 @@
         <v>0.75</v>
       </c>
       <c r="AS340">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT340">
         <v>0.67</v>
@@ -66832,7 +66895,7 @@
         <v>2</v>
       </c>
       <c r="AT341">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU341">
         <v>1.78</v>
@@ -66933,7 +66996,7 @@
         <v>135</v>
       </c>
       <c r="P342" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="Q342">
         <v>6</v>
@@ -67020,7 +67083,7 @@
         <v>0.8</v>
       </c>
       <c r="AS342">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT342">
         <v>1.17</v>
@@ -67124,7 +67187,7 @@
         <v>135</v>
       </c>
       <c r="P343" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q343">
         <v>-1</v>
@@ -67211,7 +67274,7 @@
         <v>1.5</v>
       </c>
       <c r="AS343">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT343">
         <v>2</v>
@@ -67402,7 +67465,7 @@
         <v>0.8</v>
       </c>
       <c r="AS344">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT344">
         <v>0.67</v>
@@ -67593,7 +67656,7 @@
         <v>0.75</v>
       </c>
       <c r="AS345">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT345">
         <v>0.67</v>
@@ -67784,7 +67847,7 @@
         <v>2.5</v>
       </c>
       <c r="AS346">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT346">
         <v>2</v>
@@ -68169,7 +68232,7 @@
         <v>2</v>
       </c>
       <c r="AT348">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU348">
         <v>1.62</v>
@@ -68270,7 +68333,7 @@
         <v>135</v>
       </c>
       <c r="P349" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="Q349">
         <v>6</v>
@@ -68357,7 +68420,7 @@
         <v>0.6</v>
       </c>
       <c r="AS349">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT349">
         <v>1</v>
@@ -68652,7 +68715,7 @@
         <v>339</v>
       </c>
       <c r="P351" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="Q351">
         <v>0</v>
@@ -68739,7 +68802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS351">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT351">
         <v>0.33</v>
@@ -68843,7 +68906,7 @@
         <v>158</v>
       </c>
       <c r="P352" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="Q352">
         <v>11</v>
@@ -69034,7 +69097,7 @@
         <v>340</v>
       </c>
       <c r="P353" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="Q353">
         <v>5</v>
@@ -70371,7 +70434,7 @@
         <v>221</v>
       </c>
       <c r="P360" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="Q360">
         <v>2</v>
@@ -70753,7 +70816,7 @@
         <v>265</v>
       </c>
       <c r="P362" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="Q362">
         <v>6</v>
@@ -71031,7 +71094,7 @@
         <v>0.4</v>
       </c>
       <c r="AS363">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT363">
         <v>0.5</v>
@@ -71517,7 +71580,7 @@
         <v>259</v>
       </c>
       <c r="P366" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="Q366">
         <v>5</v>
@@ -71708,7 +71771,7 @@
         <v>344</v>
       </c>
       <c r="P367" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="Q367">
         <v>7</v>
@@ -71795,10 +71858,10 @@
         <v>0.2</v>
       </c>
       <c r="AS367">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT367">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU367">
         <v>1.84</v>
@@ -72177,10 +72240,10 @@
         <v>0.4</v>
       </c>
       <c r="AS369">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT369">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU369">
         <v>1.52</v>
@@ -72750,10 +72813,10 @@
         <v>0.8</v>
       </c>
       <c r="AS372">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT372">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU372">
         <v>1.7</v>
@@ -72941,10 +73004,10 @@
         <v>0.4</v>
       </c>
       <c r="AS373">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT373">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU373">
         <v>2.08</v>
@@ -73427,7 +73490,7 @@
         <v>166</v>
       </c>
       <c r="P376" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="Q376">
         <v>6</v>
@@ -73809,7 +73872,7 @@
         <v>252</v>
       </c>
       <c r="P378" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="Q378">
         <v>-1</v>
@@ -73896,10 +73959,10 @@
         <v>0.2</v>
       </c>
       <c r="AS378">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT378">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU378">
         <v>1.12</v>
@@ -74000,7 +74063,7 @@
         <v>135</v>
       </c>
       <c r="P379" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="Q379">
         <v>-1</v>
@@ -74191,7 +74254,7 @@
         <v>135</v>
       </c>
       <c r="P380" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="Q380">
         <v>10</v>
@@ -74278,10 +74341,10 @@
         <v>1.2</v>
       </c>
       <c r="AS380">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT380">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU380">
         <v>1.2</v>
@@ -74573,7 +74636,7 @@
         <v>351</v>
       </c>
       <c r="P382" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="Q382">
         <v>5</v>
@@ -74660,10 +74723,10 @@
         <v>1.2</v>
       </c>
       <c r="AS382">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT382">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU382">
         <v>1.86</v>
@@ -74764,7 +74827,7 @@
         <v>352</v>
       </c>
       <c r="P383" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="Q383">
         <v>7</v>
@@ -75287,6 +75350,5545 @@
         <v>-1</v>
       </c>
       <c r="BK385">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:63">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>5557033</v>
+      </c>
+      <c r="C386" t="s">
+        <v>63</v>
+      </c>
+      <c r="D386" t="s">
+        <v>64</v>
+      </c>
+      <c r="E386" s="2">
+        <v>45122.45833333334</v>
+      </c>
+      <c r="F386">
+        <v>13</v>
+      </c>
+      <c r="G386" t="s">
+        <v>65</v>
+      </c>
+      <c r="H386" t="s">
+        <v>101</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+      <c r="J386">
+        <v>1</v>
+      </c>
+      <c r="K386">
+        <v>2</v>
+      </c>
+      <c r="L386">
+        <v>1</v>
+      </c>
+      <c r="M386">
+        <v>1</v>
+      </c>
+      <c r="N386">
+        <v>2</v>
+      </c>
+      <c r="O386" t="s">
+        <v>355</v>
+      </c>
+      <c r="P386" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q386">
+        <v>7</v>
+      </c>
+      <c r="R386">
+        <v>7</v>
+      </c>
+      <c r="S386">
+        <v>14</v>
+      </c>
+      <c r="T386">
+        <v>2.23</v>
+      </c>
+      <c r="U386">
+        <v>2.06</v>
+      </c>
+      <c r="V386">
+        <v>5.82</v>
+      </c>
+      <c r="W386">
+        <v>1.48</v>
+      </c>
+      <c r="X386">
+        <v>2.26</v>
+      </c>
+      <c r="Y386">
+        <v>3.17</v>
+      </c>
+      <c r="Z386">
+        <v>1.14</v>
+      </c>
+      <c r="AA386">
+        <v>8</v>
+      </c>
+      <c r="AB386">
+        <v>1.06</v>
+      </c>
+      <c r="AC386">
+        <v>1.64</v>
+      </c>
+      <c r="AD386">
+        <v>3.58</v>
+      </c>
+      <c r="AE386">
+        <v>5.1</v>
+      </c>
+      <c r="AF386">
+        <v>1.05</v>
+      </c>
+      <c r="AG386">
+        <v>8</v>
+      </c>
+      <c r="AH386">
+        <v>1.33</v>
+      </c>
+      <c r="AI386">
+        <v>3</v>
+      </c>
+      <c r="AJ386">
+        <v>2.15</v>
+      </c>
+      <c r="AK386">
+        <v>1.65</v>
+      </c>
+      <c r="AL386">
+        <v>2.02</v>
+      </c>
+      <c r="AM386">
+        <v>1.75</v>
+      </c>
+      <c r="AN386">
+        <v>1.13</v>
+      </c>
+      <c r="AO386">
+        <v>1.25</v>
+      </c>
+      <c r="AP386">
+        <v>2.11</v>
+      </c>
+      <c r="AQ386">
+        <v>1.33</v>
+      </c>
+      <c r="AR386">
+        <v>0.33</v>
+      </c>
+      <c r="AS386">
+        <v>1.29</v>
+      </c>
+      <c r="AT386">
+        <v>0.43</v>
+      </c>
+      <c r="AU386">
+        <v>1.46</v>
+      </c>
+      <c r="AV386">
+        <v>1.36</v>
+      </c>
+      <c r="AW386">
+        <v>2.82</v>
+      </c>
+      <c r="AX386">
+        <v>0</v>
+      </c>
+      <c r="AY386">
+        <v>0</v>
+      </c>
+      <c r="AZ386">
+        <v>0</v>
+      </c>
+      <c r="BA386">
+        <v>0</v>
+      </c>
+      <c r="BB386">
+        <v>0</v>
+      </c>
+      <c r="BC386">
+        <v>0</v>
+      </c>
+      <c r="BD386">
+        <v>0</v>
+      </c>
+      <c r="BE386">
+        <v>0</v>
+      </c>
+      <c r="BF386">
+        <v>11</v>
+      </c>
+      <c r="BG386">
+        <v>7</v>
+      </c>
+      <c r="BH386">
+        <v>3</v>
+      </c>
+      <c r="BI386">
+        <v>7</v>
+      </c>
+      <c r="BJ386">
+        <v>14</v>
+      </c>
+      <c r="BK386">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387" spans="1:63">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>5557148</v>
+      </c>
+      <c r="C387" t="s">
+        <v>63</v>
+      </c>
+      <c r="D387" t="s">
+        <v>64</v>
+      </c>
+      <c r="E387" s="2">
+        <v>45122.625</v>
+      </c>
+      <c r="F387">
+        <v>13</v>
+      </c>
+      <c r="G387" t="s">
+        <v>67</v>
+      </c>
+      <c r="H387" t="s">
+        <v>120</v>
+      </c>
+      <c r="I387">
+        <v>1</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>1</v>
+      </c>
+      <c r="L387">
+        <v>1</v>
+      </c>
+      <c r="M387">
+        <v>0</v>
+      </c>
+      <c r="N387">
+        <v>1</v>
+      </c>
+      <c r="O387" t="s">
+        <v>221</v>
+      </c>
+      <c r="P387" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q387">
+        <v>3</v>
+      </c>
+      <c r="R387">
+        <v>4</v>
+      </c>
+      <c r="S387">
+        <v>7</v>
+      </c>
+      <c r="T387">
+        <v>2.88</v>
+      </c>
+      <c r="U387">
+        <v>1.91</v>
+      </c>
+      <c r="V387">
+        <v>4.33</v>
+      </c>
+      <c r="W387">
+        <v>1.57</v>
+      </c>
+      <c r="X387">
+        <v>2.25</v>
+      </c>
+      <c r="Y387">
+        <v>3.5</v>
+      </c>
+      <c r="Z387">
+        <v>1.25</v>
+      </c>
+      <c r="AA387">
+        <v>10</v>
+      </c>
+      <c r="AB387">
+        <v>1.02</v>
+      </c>
+      <c r="AC387">
+        <v>2.1</v>
+      </c>
+      <c r="AD387">
+        <v>2.88</v>
+      </c>
+      <c r="AE387">
+        <v>3.5</v>
+      </c>
+      <c r="AF387">
+        <v>1.09</v>
+      </c>
+      <c r="AG387">
+        <v>6.1</v>
+      </c>
+      <c r="AH387">
+        <v>1.53</v>
+      </c>
+      <c r="AI387">
+        <v>2.33</v>
+      </c>
+      <c r="AJ387">
+        <v>2.58</v>
+      </c>
+      <c r="AK387">
+        <v>1.38</v>
+      </c>
+      <c r="AL387">
+        <v>2.17</v>
+      </c>
+      <c r="AM387">
+        <v>1.66</v>
+      </c>
+      <c r="AN387">
+        <v>1.29</v>
+      </c>
+      <c r="AO387">
+        <v>1.37</v>
+      </c>
+      <c r="AP387">
+        <v>1.57</v>
+      </c>
+      <c r="AQ387">
+        <v>1.83</v>
+      </c>
+      <c r="AR387">
+        <v>0.83</v>
+      </c>
+      <c r="AS387">
+        <v>2</v>
+      </c>
+      <c r="AT387">
+        <v>0.71</v>
+      </c>
+      <c r="AU387">
+        <v>1.63</v>
+      </c>
+      <c r="AV387">
+        <v>1.51</v>
+      </c>
+      <c r="AW387">
+        <v>3.14</v>
+      </c>
+      <c r="AX387">
+        <v>0</v>
+      </c>
+      <c r="AY387">
+        <v>0</v>
+      </c>
+      <c r="AZ387">
+        <v>0</v>
+      </c>
+      <c r="BA387">
+        <v>0</v>
+      </c>
+      <c r="BB387">
+        <v>0</v>
+      </c>
+      <c r="BC387">
+        <v>0</v>
+      </c>
+      <c r="BD387">
+        <v>0</v>
+      </c>
+      <c r="BE387">
+        <v>0</v>
+      </c>
+      <c r="BF387">
+        <v>6</v>
+      </c>
+      <c r="BG387">
+        <v>3</v>
+      </c>
+      <c r="BH387">
+        <v>6</v>
+      </c>
+      <c r="BI387">
+        <v>8</v>
+      </c>
+      <c r="BJ387">
+        <v>12</v>
+      </c>
+      <c r="BK387">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" spans="1:63">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>5557034</v>
+      </c>
+      <c r="C388" t="s">
+        <v>63</v>
+      </c>
+      <c r="D388" t="s">
+        <v>64</v>
+      </c>
+      <c r="E388" s="2">
+        <v>45122.625</v>
+      </c>
+      <c r="F388">
+        <v>13</v>
+      </c>
+      <c r="G388" t="s">
+        <v>66</v>
+      </c>
+      <c r="H388" t="s">
+        <v>98</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>1</v>
+      </c>
+      <c r="K388">
+        <v>1</v>
+      </c>
+      <c r="L388">
+        <v>3</v>
+      </c>
+      <c r="M388">
+        <v>1</v>
+      </c>
+      <c r="N388">
+        <v>4</v>
+      </c>
+      <c r="O388" t="s">
+        <v>356</v>
+      </c>
+      <c r="P388" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q388">
+        <v>4</v>
+      </c>
+      <c r="R388">
+        <v>5</v>
+      </c>
+      <c r="S388">
+        <v>9</v>
+      </c>
+      <c r="T388">
+        <v>2.88</v>
+      </c>
+      <c r="U388">
+        <v>2.05</v>
+      </c>
+      <c r="V388">
+        <v>3.75</v>
+      </c>
+      <c r="W388">
+        <v>1.49</v>
+      </c>
+      <c r="X388">
+        <v>2.23</v>
+      </c>
+      <c r="Y388">
+        <v>3</v>
+      </c>
+      <c r="Z388">
+        <v>1.33</v>
+      </c>
+      <c r="AA388">
+        <v>8.1</v>
+      </c>
+      <c r="AB388">
+        <v>1.04</v>
+      </c>
+      <c r="AC388">
+        <v>2.2</v>
+      </c>
+      <c r="AD388">
+        <v>3</v>
+      </c>
+      <c r="AE388">
+        <v>3</v>
+      </c>
+      <c r="AF388">
+        <v>1.05</v>
+      </c>
+      <c r="AG388">
+        <v>8</v>
+      </c>
+      <c r="AH388">
+        <v>1.38</v>
+      </c>
+      <c r="AI388">
+        <v>2.8</v>
+      </c>
+      <c r="AJ388">
+        <v>2.19</v>
+      </c>
+      <c r="AK388">
+        <v>1.57</v>
+      </c>
+      <c r="AL388">
+        <v>1.91</v>
+      </c>
+      <c r="AM388">
+        <v>1.85</v>
+      </c>
+      <c r="AN388">
+        <v>1.32</v>
+      </c>
+      <c r="AO388">
+        <v>1.36</v>
+      </c>
+      <c r="AP388">
+        <v>1.55</v>
+      </c>
+      <c r="AQ388">
+        <v>1.67</v>
+      </c>
+      <c r="AR388">
+        <v>1.17</v>
+      </c>
+      <c r="AS388">
+        <v>1.86</v>
+      </c>
+      <c r="AT388">
+        <v>1</v>
+      </c>
+      <c r="AU388">
+        <v>1.97</v>
+      </c>
+      <c r="AV388">
+        <v>1.33</v>
+      </c>
+      <c r="AW388">
+        <v>3.3</v>
+      </c>
+      <c r="AX388">
+        <v>0</v>
+      </c>
+      <c r="AY388">
+        <v>0</v>
+      </c>
+      <c r="AZ388">
+        <v>0</v>
+      </c>
+      <c r="BA388">
+        <v>0</v>
+      </c>
+      <c r="BB388">
+        <v>0</v>
+      </c>
+      <c r="BC388">
+        <v>0</v>
+      </c>
+      <c r="BD388">
+        <v>0</v>
+      </c>
+      <c r="BE388">
+        <v>0</v>
+      </c>
+      <c r="BF388">
+        <v>7</v>
+      </c>
+      <c r="BG388">
+        <v>2</v>
+      </c>
+      <c r="BH388">
+        <v>4</v>
+      </c>
+      <c r="BI388">
+        <v>5</v>
+      </c>
+      <c r="BJ388">
+        <v>11</v>
+      </c>
+      <c r="BK388">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:63">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>5556979</v>
+      </c>
+      <c r="C389" t="s">
+        <v>63</v>
+      </c>
+      <c r="D389" t="s">
+        <v>64</v>
+      </c>
+      <c r="E389" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F389">
+        <v>13</v>
+      </c>
+      <c r="G389" t="s">
+        <v>72</v>
+      </c>
+      <c r="H389" t="s">
+        <v>118</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>1</v>
+      </c>
+      <c r="K389">
+        <v>1</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+      <c r="M389">
+        <v>2</v>
+      </c>
+      <c r="N389">
+        <v>2</v>
+      </c>
+      <c r="O389" t="s">
+        <v>135</v>
+      </c>
+      <c r="P389" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q389">
+        <v>-1</v>
+      </c>
+      <c r="R389">
+        <v>-1</v>
+      </c>
+      <c r="S389">
+        <v>-1</v>
+      </c>
+      <c r="T389">
+        <v>5.06</v>
+      </c>
+      <c r="U389">
+        <v>3.58</v>
+      </c>
+      <c r="V389">
+        <v>1.59</v>
+      </c>
+      <c r="W389">
+        <v>1.25</v>
+      </c>
+      <c r="X389">
+        <v>3.5</v>
+      </c>
+      <c r="Y389">
+        <v>2.37</v>
+      </c>
+      <c r="Z389">
+        <v>1.51</v>
+      </c>
+      <c r="AA389">
+        <v>5.5</v>
+      </c>
+      <c r="AB389">
+        <v>1.12</v>
+      </c>
+      <c r="AC389">
+        <v>8</v>
+      </c>
+      <c r="AD389">
+        <v>5</v>
+      </c>
+      <c r="AE389">
+        <v>1.29</v>
+      </c>
+      <c r="AF389">
+        <v>1.02</v>
+      </c>
+      <c r="AG389">
+        <v>17.25</v>
+      </c>
+      <c r="AH389">
+        <v>1.19</v>
+      </c>
+      <c r="AI389">
+        <v>4.2</v>
+      </c>
+      <c r="AJ389">
+        <v>1.52</v>
+      </c>
+      <c r="AK389">
+        <v>2.3</v>
+      </c>
+      <c r="AL389">
+        <v>1.65</v>
+      </c>
+      <c r="AM389">
+        <v>2.1</v>
+      </c>
+      <c r="AN389">
+        <v>3.7</v>
+      </c>
+      <c r="AO389">
+        <v>1.11</v>
+      </c>
+      <c r="AP389">
+        <v>1.07</v>
+      </c>
+      <c r="AQ389">
+        <v>0.83</v>
+      </c>
+      <c r="AR389">
+        <v>0.17</v>
+      </c>
+      <c r="AS389">
+        <v>0.71</v>
+      </c>
+      <c r="AT389">
+        <v>0.57</v>
+      </c>
+      <c r="AU389">
+        <v>1.24</v>
+      </c>
+      <c r="AV389">
+        <v>1.47</v>
+      </c>
+      <c r="AW389">
+        <v>2.71</v>
+      </c>
+      <c r="AX389">
+        <v>0</v>
+      </c>
+      <c r="AY389">
+        <v>0</v>
+      </c>
+      <c r="AZ389">
+        <v>0</v>
+      </c>
+      <c r="BA389">
+        <v>0</v>
+      </c>
+      <c r="BB389">
+        <v>0</v>
+      </c>
+      <c r="BC389">
+        <v>0</v>
+      </c>
+      <c r="BD389">
+        <v>0</v>
+      </c>
+      <c r="BE389">
+        <v>0</v>
+      </c>
+      <c r="BF389">
+        <v>-1</v>
+      </c>
+      <c r="BG389">
+        <v>-1</v>
+      </c>
+      <c r="BH389">
+        <v>-1</v>
+      </c>
+      <c r="BI389">
+        <v>-1</v>
+      </c>
+      <c r="BJ389">
+        <v>-1</v>
+      </c>
+      <c r="BK389">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:63">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>5556978</v>
+      </c>
+      <c r="C390" t="s">
+        <v>63</v>
+      </c>
+      <c r="D390" t="s">
+        <v>64</v>
+      </c>
+      <c r="E390" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F390">
+        <v>13</v>
+      </c>
+      <c r="G390" t="s">
+        <v>71</v>
+      </c>
+      <c r="H390" t="s">
+        <v>121</v>
+      </c>
+      <c r="I390">
+        <v>4</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>4</v>
+      </c>
+      <c r="L390">
+        <v>9</v>
+      </c>
+      <c r="M390">
+        <v>0</v>
+      </c>
+      <c r="N390">
+        <v>9</v>
+      </c>
+      <c r="O390" t="s">
+        <v>357</v>
+      </c>
+      <c r="P390" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q390">
+        <v>-1</v>
+      </c>
+      <c r="R390">
+        <v>-1</v>
+      </c>
+      <c r="S390">
+        <v>-1</v>
+      </c>
+      <c r="T390">
+        <v>1.06</v>
+      </c>
+      <c r="U390">
+        <v>7.6</v>
+      </c>
+      <c r="V390">
+        <v>34</v>
+      </c>
+      <c r="W390">
+        <v>1.06</v>
+      </c>
+      <c r="X390">
+        <v>8</v>
+      </c>
+      <c r="Y390">
+        <v>1.4</v>
+      </c>
+      <c r="Z390">
+        <v>2.75</v>
+      </c>
+      <c r="AA390">
+        <v>2.5</v>
+      </c>
+      <c r="AB390">
+        <v>1.5</v>
+      </c>
+      <c r="AC390">
+        <v>1.04</v>
+      </c>
+      <c r="AD390">
+        <v>11</v>
+      </c>
+      <c r="AE390">
+        <v>29</v>
+      </c>
+      <c r="AF390">
+        <v>0</v>
+      </c>
+      <c r="AG390">
+        <v>0</v>
+      </c>
+      <c r="AH390">
+        <v>1.01</v>
+      </c>
+      <c r="AI390">
+        <v>17</v>
+      </c>
+      <c r="AJ390">
+        <v>1.07</v>
+      </c>
+      <c r="AK390">
+        <v>7</v>
+      </c>
+      <c r="AL390">
+        <v>2.25</v>
+      </c>
+      <c r="AM390">
+        <v>1.61</v>
+      </c>
+      <c r="AN390">
+        <v>0</v>
+      </c>
+      <c r="AO390">
+        <v>1.01</v>
+      </c>
+      <c r="AP390">
+        <v>9.1</v>
+      </c>
+      <c r="AQ390">
+        <v>1.83</v>
+      </c>
+      <c r="AR390">
+        <v>0.17</v>
+      </c>
+      <c r="AS390">
+        <v>2</v>
+      </c>
+      <c r="AT390">
+        <v>0.14</v>
+      </c>
+      <c r="AU390">
+        <v>1.66</v>
+      </c>
+      <c r="AV390">
+        <v>0.87</v>
+      </c>
+      <c r="AW390">
+        <v>2.53</v>
+      </c>
+      <c r="AX390">
+        <v>0</v>
+      </c>
+      <c r="AY390">
+        <v>0</v>
+      </c>
+      <c r="AZ390">
+        <v>0</v>
+      </c>
+      <c r="BA390">
+        <v>0</v>
+      </c>
+      <c r="BB390">
+        <v>0</v>
+      </c>
+      <c r="BC390">
+        <v>0</v>
+      </c>
+      <c r="BD390">
+        <v>0</v>
+      </c>
+      <c r="BE390">
+        <v>0</v>
+      </c>
+      <c r="BF390">
+        <v>-1</v>
+      </c>
+      <c r="BG390">
+        <v>-1</v>
+      </c>
+      <c r="BH390">
+        <v>-1</v>
+      </c>
+      <c r="BI390">
+        <v>-1</v>
+      </c>
+      <c r="BJ390">
+        <v>-1</v>
+      </c>
+      <c r="BK390">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:63">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>5556924</v>
+      </c>
+      <c r="C391" t="s">
+        <v>63</v>
+      </c>
+      <c r="D391" t="s">
+        <v>64</v>
+      </c>
+      <c r="E391" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F391">
+        <v>13</v>
+      </c>
+      <c r="G391" t="s">
+        <v>69</v>
+      </c>
+      <c r="H391" t="s">
+        <v>105</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>1</v>
+      </c>
+      <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391">
+        <v>1</v>
+      </c>
+      <c r="O391" t="s">
+        <v>182</v>
+      </c>
+      <c r="P391" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q391">
+        <v>5</v>
+      </c>
+      <c r="R391">
+        <v>1</v>
+      </c>
+      <c r="S391">
+        <v>6</v>
+      </c>
+      <c r="T391">
+        <v>2.5</v>
+      </c>
+      <c r="U391">
+        <v>2.1</v>
+      </c>
+      <c r="V391">
+        <v>4.33</v>
+      </c>
+      <c r="W391">
+        <v>1.5</v>
+      </c>
+      <c r="X391">
+        <v>2.4</v>
+      </c>
+      <c r="Y391">
+        <v>3.2</v>
+      </c>
+      <c r="Z391">
+        <v>1.3</v>
+      </c>
+      <c r="AA391">
+        <v>8</v>
+      </c>
+      <c r="AB391">
+        <v>1.05</v>
+      </c>
+      <c r="AC391">
+        <v>2</v>
+      </c>
+      <c r="AD391">
+        <v>3</v>
+      </c>
+      <c r="AE391">
+        <v>3.6</v>
+      </c>
+      <c r="AF391">
+        <v>1.07</v>
+      </c>
+      <c r="AG391">
+        <v>7</v>
+      </c>
+      <c r="AH391">
+        <v>1.47</v>
+      </c>
+      <c r="AI391">
+        <v>2.64</v>
+      </c>
+      <c r="AJ391">
+        <v>2.26</v>
+      </c>
+      <c r="AK391">
+        <v>1.54</v>
+      </c>
+      <c r="AL391">
+        <v>1.85</v>
+      </c>
+      <c r="AM391">
+        <v>1.85</v>
+      </c>
+      <c r="AN391">
+        <v>1.33</v>
+      </c>
+      <c r="AO391">
+        <v>1.38</v>
+      </c>
+      <c r="AP391">
+        <v>1.62</v>
+      </c>
+      <c r="AQ391">
+        <v>1</v>
+      </c>
+      <c r="AR391">
+        <v>1.17</v>
+      </c>
+      <c r="AS391">
+        <v>1.29</v>
+      </c>
+      <c r="AT391">
+        <v>1</v>
+      </c>
+      <c r="AU391">
+        <v>2</v>
+      </c>
+      <c r="AV391">
+        <v>1.25</v>
+      </c>
+      <c r="AW391">
+        <v>3.25</v>
+      </c>
+      <c r="AX391">
+        <v>0</v>
+      </c>
+      <c r="AY391">
+        <v>0</v>
+      </c>
+      <c r="AZ391">
+        <v>0</v>
+      </c>
+      <c r="BA391">
+        <v>0</v>
+      </c>
+      <c r="BB391">
+        <v>0</v>
+      </c>
+      <c r="BC391">
+        <v>2.38</v>
+      </c>
+      <c r="BD391">
+        <v>0</v>
+      </c>
+      <c r="BE391">
+        <v>0</v>
+      </c>
+      <c r="BF391">
+        <v>5</v>
+      </c>
+      <c r="BG391">
+        <v>4</v>
+      </c>
+      <c r="BH391">
+        <v>6</v>
+      </c>
+      <c r="BI391">
+        <v>4</v>
+      </c>
+      <c r="BJ391">
+        <v>11</v>
+      </c>
+      <c r="BK391">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:63">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>5557035</v>
+      </c>
+      <c r="C392" t="s">
+        <v>63</v>
+      </c>
+      <c r="D392" t="s">
+        <v>64</v>
+      </c>
+      <c r="E392" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F392">
+        <v>13</v>
+      </c>
+      <c r="G392" t="s">
+        <v>78</v>
+      </c>
+      <c r="H392" t="s">
+        <v>108</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>1</v>
+      </c>
+      <c r="L392">
+        <v>1</v>
+      </c>
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392">
+        <v>1</v>
+      </c>
+      <c r="O392" t="s">
+        <v>358</v>
+      </c>
+      <c r="P392" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q392">
+        <v>5</v>
+      </c>
+      <c r="R392">
+        <v>7</v>
+      </c>
+      <c r="S392">
+        <v>12</v>
+      </c>
+      <c r="T392">
+        <v>2.6</v>
+      </c>
+      <c r="U392">
+        <v>1.91</v>
+      </c>
+      <c r="V392">
+        <v>4.75</v>
+      </c>
+      <c r="W392">
+        <v>1.59</v>
+      </c>
+      <c r="X392">
+        <v>2.25</v>
+      </c>
+      <c r="Y392">
+        <v>3.75</v>
+      </c>
+      <c r="Z392">
+        <v>1.24</v>
+      </c>
+      <c r="AA392">
+        <v>8.75</v>
+      </c>
+      <c r="AB392">
+        <v>1.03</v>
+      </c>
+      <c r="AC392">
+        <v>2.05</v>
+      </c>
+      <c r="AD392">
+        <v>2.9</v>
+      </c>
+      <c r="AE392">
+        <v>3.6</v>
+      </c>
+      <c r="AF392">
+        <v>1.11</v>
+      </c>
+      <c r="AG392">
+        <v>6.9</v>
+      </c>
+      <c r="AH392">
+        <v>1.49</v>
+      </c>
+      <c r="AI392">
+        <v>2.48</v>
+      </c>
+      <c r="AJ392">
+        <v>2.57</v>
+      </c>
+      <c r="AK392">
+        <v>1.42</v>
+      </c>
+      <c r="AL392">
+        <v>2.15</v>
+      </c>
+      <c r="AM392">
+        <v>1.6</v>
+      </c>
+      <c r="AN392">
+        <v>1.29</v>
+      </c>
+      <c r="AO392">
+        <v>1.36</v>
+      </c>
+      <c r="AP392">
+        <v>1.63</v>
+      </c>
+      <c r="AQ392">
+        <v>2.67</v>
+      </c>
+      <c r="AR392">
+        <v>2.17</v>
+      </c>
+      <c r="AS392">
+        <v>2.71</v>
+      </c>
+      <c r="AT392">
+        <v>1.86</v>
+      </c>
+      <c r="AU392">
+        <v>1.75</v>
+      </c>
+      <c r="AV392">
+        <v>1.49</v>
+      </c>
+      <c r="AW392">
+        <v>3.24</v>
+      </c>
+      <c r="AX392">
+        <v>0</v>
+      </c>
+      <c r="AY392">
+        <v>0</v>
+      </c>
+      <c r="AZ392">
+        <v>0</v>
+      </c>
+      <c r="BA392">
+        <v>0</v>
+      </c>
+      <c r="BB392">
+        <v>0</v>
+      </c>
+      <c r="BC392">
+        <v>0</v>
+      </c>
+      <c r="BD392">
+        <v>0</v>
+      </c>
+      <c r="BE392">
+        <v>0</v>
+      </c>
+      <c r="BF392">
+        <v>4</v>
+      </c>
+      <c r="BG392">
+        <v>2</v>
+      </c>
+      <c r="BH392">
+        <v>4</v>
+      </c>
+      <c r="BI392">
+        <v>5</v>
+      </c>
+      <c r="BJ392">
+        <v>8</v>
+      </c>
+      <c r="BK392">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:63">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>5556980</v>
+      </c>
+      <c r="C393" t="s">
+        <v>63</v>
+      </c>
+      <c r="D393" t="s">
+        <v>64</v>
+      </c>
+      <c r="E393" s="2">
+        <v>45122.70833333334</v>
+      </c>
+      <c r="F393">
+        <v>13</v>
+      </c>
+      <c r="G393" t="s">
+        <v>74</v>
+      </c>
+      <c r="H393" t="s">
+        <v>112</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+      <c r="M393">
+        <v>0</v>
+      </c>
+      <c r="N393">
+        <v>0</v>
+      </c>
+      <c r="O393" t="s">
+        <v>135</v>
+      </c>
+      <c r="P393" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q393">
+        <v>1</v>
+      </c>
+      <c r="R393">
+        <v>8</v>
+      </c>
+      <c r="S393">
+        <v>9</v>
+      </c>
+      <c r="T393">
+        <v>2.63</v>
+      </c>
+      <c r="U393">
+        <v>2.1</v>
+      </c>
+      <c r="V393">
+        <v>4</v>
+      </c>
+      <c r="W393">
+        <v>1.4</v>
+      </c>
+      <c r="X393">
+        <v>2.7</v>
+      </c>
+      <c r="Y393">
+        <v>2.8</v>
+      </c>
+      <c r="Z393">
+        <v>1.38</v>
+      </c>
+      <c r="AA393">
+        <v>6.5</v>
+      </c>
+      <c r="AB393">
+        <v>1.08</v>
+      </c>
+      <c r="AC393">
+        <v>2.2</v>
+      </c>
+      <c r="AD393">
+        <v>3.1</v>
+      </c>
+      <c r="AE393">
+        <v>3</v>
+      </c>
+      <c r="AF393">
+        <v>1.05</v>
+      </c>
+      <c r="AG393">
+        <v>10.25</v>
+      </c>
+      <c r="AH393">
+        <v>1.29</v>
+      </c>
+      <c r="AI393">
+        <v>3.28</v>
+      </c>
+      <c r="AJ393">
+        <v>2.04</v>
+      </c>
+      <c r="AK393">
+        <v>1.66</v>
+      </c>
+      <c r="AL393">
+        <v>1.85</v>
+      </c>
+      <c r="AM393">
+        <v>1.85</v>
+      </c>
+      <c r="AN393">
+        <v>1.32</v>
+      </c>
+      <c r="AO393">
+        <v>1.35</v>
+      </c>
+      <c r="AP393">
+        <v>1.58</v>
+      </c>
+      <c r="AQ393">
+        <v>2.5</v>
+      </c>
+      <c r="AR393">
+        <v>1.33</v>
+      </c>
+      <c r="AS393">
+        <v>2.29</v>
+      </c>
+      <c r="AT393">
+        <v>1.29</v>
+      </c>
+      <c r="AU393">
+        <v>1.67</v>
+      </c>
+      <c r="AV393">
+        <v>1.76</v>
+      </c>
+      <c r="AW393">
+        <v>3.43</v>
+      </c>
+      <c r="AX393">
+        <v>0</v>
+      </c>
+      <c r="AY393">
+        <v>0</v>
+      </c>
+      <c r="AZ393">
+        <v>0</v>
+      </c>
+      <c r="BA393">
+        <v>0</v>
+      </c>
+      <c r="BB393">
+        <v>0</v>
+      </c>
+      <c r="BC393">
+        <v>1.93</v>
+      </c>
+      <c r="BD393">
+        <v>0</v>
+      </c>
+      <c r="BE393">
+        <v>0</v>
+      </c>
+      <c r="BF393">
+        <v>4</v>
+      </c>
+      <c r="BG393">
+        <v>6</v>
+      </c>
+      <c r="BH393">
+        <v>5</v>
+      </c>
+      <c r="BI393">
+        <v>7</v>
+      </c>
+      <c r="BJ393">
+        <v>9</v>
+      </c>
+      <c r="BK393">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:63">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>5557091</v>
+      </c>
+      <c r="C394" t="s">
+        <v>63</v>
+      </c>
+      <c r="D394" t="s">
+        <v>64</v>
+      </c>
+      <c r="E394" s="2">
+        <v>45122.70833333334</v>
+      </c>
+      <c r="F394">
+        <v>13</v>
+      </c>
+      <c r="G394" t="s">
+        <v>76</v>
+      </c>
+      <c r="H394" t="s">
+        <v>115</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>1</v>
+      </c>
+      <c r="K394">
+        <v>1</v>
+      </c>
+      <c r="L394">
+        <v>1</v>
+      </c>
+      <c r="M394">
+        <v>2</v>
+      </c>
+      <c r="N394">
+        <v>3</v>
+      </c>
+      <c r="O394" t="s">
+        <v>160</v>
+      </c>
+      <c r="P394" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q394">
+        <v>10</v>
+      </c>
+      <c r="R394">
+        <v>3</v>
+      </c>
+      <c r="S394">
+        <v>13</v>
+      </c>
+      <c r="T394">
+        <v>2.63</v>
+      </c>
+      <c r="U394">
+        <v>1.91</v>
+      </c>
+      <c r="V394">
+        <v>4.5</v>
+      </c>
+      <c r="W394">
+        <v>1.6</v>
+      </c>
+      <c r="X394">
+        <v>2.2</v>
+      </c>
+      <c r="Y394">
+        <v>3.7</v>
+      </c>
+      <c r="Z394">
+        <v>1.24</v>
+      </c>
+      <c r="AA394">
+        <v>8.75</v>
+      </c>
+      <c r="AB394">
+        <v>1.04</v>
+      </c>
+      <c r="AC394">
+        <v>2.15</v>
+      </c>
+      <c r="AD394">
+        <v>2.88</v>
+      </c>
+      <c r="AE394">
+        <v>3.4</v>
+      </c>
+      <c r="AF394">
+        <v>1.11</v>
+      </c>
+      <c r="AG394">
+        <v>6.6</v>
+      </c>
+      <c r="AH394">
+        <v>1.53</v>
+      </c>
+      <c r="AI394">
+        <v>2.38</v>
+      </c>
+      <c r="AJ394">
+        <v>2.45</v>
+      </c>
+      <c r="AK394">
+        <v>1.48</v>
+      </c>
+      <c r="AL394">
+        <v>2.2</v>
+      </c>
+      <c r="AM394">
+        <v>1.6</v>
+      </c>
+      <c r="AN394">
+        <v>1.3</v>
+      </c>
+      <c r="AO394">
+        <v>1.38</v>
+      </c>
+      <c r="AP394">
+        <v>1.55</v>
+      </c>
+      <c r="AQ394">
+        <v>1.5</v>
+      </c>
+      <c r="AR394">
+        <v>1.17</v>
+      </c>
+      <c r="AS394">
+        <v>1.29</v>
+      </c>
+      <c r="AT394">
+        <v>1.43</v>
+      </c>
+      <c r="AU394">
+        <v>2.23</v>
+      </c>
+      <c r="AV394">
+        <v>1.57</v>
+      </c>
+      <c r="AW394">
+        <v>3.8</v>
+      </c>
+      <c r="AX394">
+        <v>0</v>
+      </c>
+      <c r="AY394">
+        <v>0</v>
+      </c>
+      <c r="AZ394">
+        <v>0</v>
+      </c>
+      <c r="BA394">
+        <v>0</v>
+      </c>
+      <c r="BB394">
+        <v>0</v>
+      </c>
+      <c r="BC394">
+        <v>0</v>
+      </c>
+      <c r="BD394">
+        <v>1.8</v>
+      </c>
+      <c r="BE394">
+        <v>0</v>
+      </c>
+      <c r="BF394">
+        <v>9</v>
+      </c>
+      <c r="BG394">
+        <v>5</v>
+      </c>
+      <c r="BH394">
+        <v>10</v>
+      </c>
+      <c r="BI394">
+        <v>3</v>
+      </c>
+      <c r="BJ394">
+        <v>19</v>
+      </c>
+      <c r="BK394">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:63">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>5557089</v>
+      </c>
+      <c r="C395" t="s">
+        <v>63</v>
+      </c>
+      <c r="D395" t="s">
+        <v>64</v>
+      </c>
+      <c r="E395" s="2">
+        <v>45122.70833333334</v>
+      </c>
+      <c r="F395">
+        <v>13</v>
+      </c>
+      <c r="G395" t="s">
+        <v>77</v>
+      </c>
+      <c r="H395" t="s">
+        <v>125</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+      <c r="L395">
+        <v>1</v>
+      </c>
+      <c r="M395">
+        <v>0</v>
+      </c>
+      <c r="N395">
+        <v>1</v>
+      </c>
+      <c r="O395" t="s">
+        <v>176</v>
+      </c>
+      <c r="P395" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q395">
+        <v>1</v>
+      </c>
+      <c r="R395">
+        <v>0</v>
+      </c>
+      <c r="S395">
+        <v>1</v>
+      </c>
+      <c r="T395">
+        <v>1.89</v>
+      </c>
+      <c r="U395">
+        <v>2.29</v>
+      </c>
+      <c r="V395">
+        <v>7.13</v>
+      </c>
+      <c r="W395">
+        <v>1.36</v>
+      </c>
+      <c r="X395">
+        <v>2.81</v>
+      </c>
+      <c r="Y395">
+        <v>2.71</v>
+      </c>
+      <c r="Z395">
+        <v>1.38</v>
+      </c>
+      <c r="AA395">
+        <v>6.8</v>
+      </c>
+      <c r="AB395">
+        <v>1.07</v>
+      </c>
+      <c r="AC395">
+        <v>1.44</v>
+      </c>
+      <c r="AD395">
+        <v>3.9</v>
+      </c>
+      <c r="AE395">
+        <v>6.5</v>
+      </c>
+      <c r="AF395">
+        <v>1.02</v>
+      </c>
+      <c r="AG395">
+        <v>10</v>
+      </c>
+      <c r="AH395">
+        <v>1.29</v>
+      </c>
+      <c r="AI395">
+        <v>3.3</v>
+      </c>
+      <c r="AJ395">
+        <v>1.94</v>
+      </c>
+      <c r="AK395">
+        <v>1.84</v>
+      </c>
+      <c r="AL395">
+        <v>2.07</v>
+      </c>
+      <c r="AM395">
+        <v>1.72</v>
+      </c>
+      <c r="AN395">
+        <v>1.05</v>
+      </c>
+      <c r="AO395">
+        <v>1.16</v>
+      </c>
+      <c r="AP395">
+        <v>2.82</v>
+      </c>
+      <c r="AQ395">
+        <v>1</v>
+      </c>
+      <c r="AR395">
+        <v>0.33</v>
+      </c>
+      <c r="AS395">
+        <v>1.29</v>
+      </c>
+      <c r="AT395">
+        <v>0.29</v>
+      </c>
+      <c r="AU395">
+        <v>1.92</v>
+      </c>
+      <c r="AV395">
+        <v>1.33</v>
+      </c>
+      <c r="AW395">
+        <v>3.25</v>
+      </c>
+      <c r="AX395">
+        <v>0</v>
+      </c>
+      <c r="AY395">
+        <v>0</v>
+      </c>
+      <c r="AZ395">
+        <v>0</v>
+      </c>
+      <c r="BA395">
+        <v>0</v>
+      </c>
+      <c r="BB395">
+        <v>0</v>
+      </c>
+      <c r="BC395">
+        <v>0</v>
+      </c>
+      <c r="BD395">
+        <v>0</v>
+      </c>
+      <c r="BE395">
+        <v>0</v>
+      </c>
+      <c r="BF395">
+        <v>-1</v>
+      </c>
+      <c r="BG395">
+        <v>-1</v>
+      </c>
+      <c r="BH395">
+        <v>-1</v>
+      </c>
+      <c r="BI395">
+        <v>-1</v>
+      </c>
+      <c r="BJ395">
+        <v>-1</v>
+      </c>
+      <c r="BK395">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:63">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>5556921</v>
+      </c>
+      <c r="C396" t="s">
+        <v>63</v>
+      </c>
+      <c r="D396" t="s">
+        <v>64</v>
+      </c>
+      <c r="E396" s="2">
+        <v>45122.70833333334</v>
+      </c>
+      <c r="F396">
+        <v>13</v>
+      </c>
+      <c r="G396" t="s">
+        <v>75</v>
+      </c>
+      <c r="H396" t="s">
+        <v>111</v>
+      </c>
+      <c r="I396">
+        <v>1</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>1</v>
+      </c>
+      <c r="L396">
+        <v>1</v>
+      </c>
+      <c r="M396">
+        <v>0</v>
+      </c>
+      <c r="N396">
+        <v>1</v>
+      </c>
+      <c r="O396" t="s">
+        <v>296</v>
+      </c>
+      <c r="P396" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q396">
+        <v>7</v>
+      </c>
+      <c r="R396">
+        <v>2</v>
+      </c>
+      <c r="S396">
+        <v>9</v>
+      </c>
+      <c r="T396">
+        <v>2.4</v>
+      </c>
+      <c r="U396">
+        <v>1.95</v>
+      </c>
+      <c r="V396">
+        <v>5.5</v>
+      </c>
+      <c r="W396">
+        <v>1.52</v>
+      </c>
+      <c r="X396">
+        <v>2.36</v>
+      </c>
+      <c r="Y396">
+        <v>3.4</v>
+      </c>
+      <c r="Z396">
+        <v>1.27</v>
+      </c>
+      <c r="AA396">
+        <v>9.4</v>
+      </c>
+      <c r="AB396">
+        <v>1.03</v>
+      </c>
+      <c r="AC396">
+        <v>1.8</v>
+      </c>
+      <c r="AD396">
+        <v>3</v>
+      </c>
+      <c r="AE396">
+        <v>4.6</v>
+      </c>
+      <c r="AF396">
+        <v>1.08</v>
+      </c>
+      <c r="AG396">
+        <v>6.5</v>
+      </c>
+      <c r="AH396">
+        <v>1.47</v>
+      </c>
+      <c r="AI396">
+        <v>2.5</v>
+      </c>
+      <c r="AJ396">
+        <v>2.37</v>
+      </c>
+      <c r="AK396">
+        <v>1.49</v>
+      </c>
+      <c r="AL396">
+        <v>2.19</v>
+      </c>
+      <c r="AM396">
+        <v>1.64</v>
+      </c>
+      <c r="AN396">
+        <v>1.12</v>
+      </c>
+      <c r="AO396">
+        <v>1.32</v>
+      </c>
+      <c r="AP396">
+        <v>2.03</v>
+      </c>
+      <c r="AQ396">
+        <v>2.33</v>
+      </c>
+      <c r="AR396">
+        <v>1.5</v>
+      </c>
+      <c r="AS396">
+        <v>2.43</v>
+      </c>
+      <c r="AT396">
+        <v>1.29</v>
+      </c>
+      <c r="AU396">
+        <v>1.5</v>
+      </c>
+      <c r="AV396">
+        <v>1.48</v>
+      </c>
+      <c r="AW396">
+        <v>2.98</v>
+      </c>
+      <c r="AX396">
+        <v>0</v>
+      </c>
+      <c r="AY396">
+        <v>0</v>
+      </c>
+      <c r="AZ396">
+        <v>0</v>
+      </c>
+      <c r="BA396">
+        <v>0</v>
+      </c>
+      <c r="BB396">
+        <v>0</v>
+      </c>
+      <c r="BC396">
+        <v>0</v>
+      </c>
+      <c r="BD396">
+        <v>0</v>
+      </c>
+      <c r="BE396">
+        <v>0</v>
+      </c>
+      <c r="BF396">
+        <v>6</v>
+      </c>
+      <c r="BG396">
+        <v>4</v>
+      </c>
+      <c r="BH396">
+        <v>1</v>
+      </c>
+      <c r="BI396">
+        <v>5</v>
+      </c>
+      <c r="BJ396">
+        <v>7</v>
+      </c>
+      <c r="BK396">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:63">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>5556753</v>
+      </c>
+      <c r="C397" t="s">
+        <v>63</v>
+      </c>
+      <c r="D397" t="s">
+        <v>64</v>
+      </c>
+      <c r="E397" s="2">
+        <v>45122.75</v>
+      </c>
+      <c r="F397">
+        <v>13</v>
+      </c>
+      <c r="G397" t="s">
+        <v>87</v>
+      </c>
+      <c r="H397" t="s">
+        <v>110</v>
+      </c>
+      <c r="I397">
+        <v>2</v>
+      </c>
+      <c r="J397">
+        <v>1</v>
+      </c>
+      <c r="K397">
+        <v>3</v>
+      </c>
+      <c r="L397">
+        <v>6</v>
+      </c>
+      <c r="M397">
+        <v>1</v>
+      </c>
+      <c r="N397">
+        <v>7</v>
+      </c>
+      <c r="O397" t="s">
+        <v>359</v>
+      </c>
+      <c r="P397" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q397">
+        <v>3</v>
+      </c>
+      <c r="R397">
+        <v>4</v>
+      </c>
+      <c r="S397">
+        <v>7</v>
+      </c>
+      <c r="T397">
+        <v>2.63</v>
+      </c>
+      <c r="U397">
+        <v>2.05</v>
+      </c>
+      <c r="V397">
+        <v>4</v>
+      </c>
+      <c r="W397">
+        <v>1.48</v>
+      </c>
+      <c r="X397">
+        <v>2.26</v>
+      </c>
+      <c r="Y397">
+        <v>3.17</v>
+      </c>
+      <c r="Z397">
+        <v>1.14</v>
+      </c>
+      <c r="AA397">
+        <v>8.1</v>
+      </c>
+      <c r="AB397">
+        <v>1.04</v>
+      </c>
+      <c r="AC397">
+        <v>2.05</v>
+      </c>
+      <c r="AD397">
+        <v>3</v>
+      </c>
+      <c r="AE397">
+        <v>3.5</v>
+      </c>
+      <c r="AF397">
+        <v>1.05</v>
+      </c>
+      <c r="AG397">
+        <v>8</v>
+      </c>
+      <c r="AH397">
+        <v>1.38</v>
+      </c>
+      <c r="AI397">
+        <v>2.8</v>
+      </c>
+      <c r="AJ397">
+        <v>2.15</v>
+      </c>
+      <c r="AK397">
+        <v>1.63</v>
+      </c>
+      <c r="AL397">
+        <v>1.91</v>
+      </c>
+      <c r="AM397">
+        <v>1.85</v>
+      </c>
+      <c r="AN397">
+        <v>1.27</v>
+      </c>
+      <c r="AO397">
+        <v>1.34</v>
+      </c>
+      <c r="AP397">
+        <v>1.64</v>
+      </c>
+      <c r="AQ397">
+        <v>1.83</v>
+      </c>
+      <c r="AR397">
+        <v>0.67</v>
+      </c>
+      <c r="AS397">
+        <v>2</v>
+      </c>
+      <c r="AT397">
+        <v>0.57</v>
+      </c>
+      <c r="AU397">
+        <v>1.34</v>
+      </c>
+      <c r="AV397">
+        <v>1.52</v>
+      </c>
+      <c r="AW397">
+        <v>2.86</v>
+      </c>
+      <c r="AX397">
+        <v>0</v>
+      </c>
+      <c r="AY397">
+        <v>0</v>
+      </c>
+      <c r="AZ397">
+        <v>0</v>
+      </c>
+      <c r="BA397">
+        <v>0</v>
+      </c>
+      <c r="BB397">
+        <v>0</v>
+      </c>
+      <c r="BC397">
+        <v>0</v>
+      </c>
+      <c r="BD397">
+        <v>0</v>
+      </c>
+      <c r="BE397">
+        <v>0</v>
+      </c>
+      <c r="BF397">
+        <v>10</v>
+      </c>
+      <c r="BG397">
+        <v>3</v>
+      </c>
+      <c r="BH397">
+        <v>10</v>
+      </c>
+      <c r="BI397">
+        <v>6</v>
+      </c>
+      <c r="BJ397">
+        <v>20</v>
+      </c>
+      <c r="BK397">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:63">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>5556866</v>
+      </c>
+      <c r="C398" t="s">
+        <v>63</v>
+      </c>
+      <c r="D398" t="s">
+        <v>64</v>
+      </c>
+      <c r="E398" s="2">
+        <v>45122.79166666666</v>
+      </c>
+      <c r="F398">
+        <v>13</v>
+      </c>
+      <c r="G398" t="s">
+        <v>80</v>
+      </c>
+      <c r="H398" t="s">
+        <v>122</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398">
+        <v>1</v>
+      </c>
+      <c r="M398">
+        <v>1</v>
+      </c>
+      <c r="N398">
+        <v>2</v>
+      </c>
+      <c r="O398" t="s">
+        <v>277</v>
+      </c>
+      <c r="P398" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q398">
+        <v>4</v>
+      </c>
+      <c r="R398">
+        <v>1</v>
+      </c>
+      <c r="S398">
+        <v>5</v>
+      </c>
+      <c r="T398">
+        <v>2.88</v>
+      </c>
+      <c r="U398">
+        <v>2</v>
+      </c>
+      <c r="V398">
+        <v>3.6</v>
+      </c>
+      <c r="W398">
+        <v>1.51</v>
+      </c>
+      <c r="X398">
+        <v>2.4</v>
+      </c>
+      <c r="Y398">
+        <v>3.2</v>
+      </c>
+      <c r="Z398">
+        <v>1.3</v>
+      </c>
+      <c r="AA398">
+        <v>7.5</v>
+      </c>
+      <c r="AB398">
+        <v>1.04</v>
+      </c>
+      <c r="AC398">
+        <v>2.2</v>
+      </c>
+      <c r="AD398">
+        <v>3</v>
+      </c>
+      <c r="AE398">
+        <v>3.1</v>
+      </c>
+      <c r="AF398">
+        <v>1.07</v>
+      </c>
+      <c r="AG398">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH398">
+        <v>1.38</v>
+      </c>
+      <c r="AI398">
+        <v>2.82</v>
+      </c>
+      <c r="AJ398">
+        <v>2.2</v>
+      </c>
+      <c r="AK398">
+        <v>1.65</v>
+      </c>
+      <c r="AL398">
+        <v>1.85</v>
+      </c>
+      <c r="AM398">
+        <v>1.85</v>
+      </c>
+      <c r="AN398">
+        <v>1.36</v>
+      </c>
+      <c r="AO398">
+        <v>1.3</v>
+      </c>
+      <c r="AP398">
+        <v>1.38</v>
+      </c>
+      <c r="AQ398">
+        <v>2.33</v>
+      </c>
+      <c r="AR398">
+        <v>1</v>
+      </c>
+      <c r="AS398">
+        <v>2.14</v>
+      </c>
+      <c r="AT398">
+        <v>1</v>
+      </c>
+      <c r="AU398">
+        <v>1.86</v>
+      </c>
+      <c r="AV398">
+        <v>1.7</v>
+      </c>
+      <c r="AW398">
+        <v>3.56</v>
+      </c>
+      <c r="AX398">
+        <v>0</v>
+      </c>
+      <c r="AY398">
+        <v>0</v>
+      </c>
+      <c r="AZ398">
+        <v>0</v>
+      </c>
+      <c r="BA398">
+        <v>0</v>
+      </c>
+      <c r="BB398">
+        <v>0</v>
+      </c>
+      <c r="BC398">
+        <v>1.91</v>
+      </c>
+      <c r="BD398">
+        <v>2</v>
+      </c>
+      <c r="BE398">
+        <v>0</v>
+      </c>
+      <c r="BF398">
+        <v>5</v>
+      </c>
+      <c r="BG398">
+        <v>5</v>
+      </c>
+      <c r="BH398">
+        <v>7</v>
+      </c>
+      <c r="BI398">
+        <v>7</v>
+      </c>
+      <c r="BJ398">
+        <v>12</v>
+      </c>
+      <c r="BK398">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="399" spans="1:63">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>5556812</v>
+      </c>
+      <c r="C399" t="s">
+        <v>63</v>
+      </c>
+      <c r="D399" t="s">
+        <v>64</v>
+      </c>
+      <c r="E399" s="2">
+        <v>45122.79166666666</v>
+      </c>
+      <c r="F399">
+        <v>13</v>
+      </c>
+      <c r="G399" t="s">
+        <v>91</v>
+      </c>
+      <c r="H399" t="s">
+        <v>100</v>
+      </c>
+      <c r="I399">
+        <v>1</v>
+      </c>
+      <c r="J399">
+        <v>1</v>
+      </c>
+      <c r="K399">
+        <v>2</v>
+      </c>
+      <c r="L399">
+        <v>1</v>
+      </c>
+      <c r="M399">
+        <v>1</v>
+      </c>
+      <c r="N399">
+        <v>2</v>
+      </c>
+      <c r="O399" t="s">
+        <v>219</v>
+      </c>
+      <c r="P399" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q399">
+        <v>4</v>
+      </c>
+      <c r="R399">
+        <v>4</v>
+      </c>
+      <c r="S399">
+        <v>8</v>
+      </c>
+      <c r="T399">
+        <v>2.63</v>
+      </c>
+      <c r="U399">
+        <v>2.05</v>
+      </c>
+      <c r="V399">
+        <v>4</v>
+      </c>
+      <c r="W399">
+        <v>1.5</v>
+      </c>
+      <c r="X399">
+        <v>2.4</v>
+      </c>
+      <c r="Y399">
+        <v>3.11</v>
+      </c>
+      <c r="Z399">
+        <v>1.3</v>
+      </c>
+      <c r="AA399">
+        <v>8.1</v>
+      </c>
+      <c r="AB399">
+        <v>1.04</v>
+      </c>
+      <c r="AC399">
+        <v>2.2</v>
+      </c>
+      <c r="AD399">
+        <v>2.88</v>
+      </c>
+      <c r="AE399">
+        <v>3.4</v>
+      </c>
+      <c r="AF399">
+        <v>1.07</v>
+      </c>
+      <c r="AG399">
+        <v>8.25</v>
+      </c>
+      <c r="AH399">
+        <v>1.37</v>
+      </c>
+      <c r="AI399">
+        <v>2.8</v>
+      </c>
+      <c r="AJ399">
+        <v>2.15</v>
+      </c>
+      <c r="AK399">
+        <v>1.67</v>
+      </c>
+      <c r="AL399">
+        <v>1.9</v>
+      </c>
+      <c r="AM399">
+        <v>1.8</v>
+      </c>
+      <c r="AN399">
+        <v>1.3</v>
+      </c>
+      <c r="AO399">
+        <v>1.3</v>
+      </c>
+      <c r="AP399">
+        <v>1.5</v>
+      </c>
+      <c r="AQ399">
+        <v>1.67</v>
+      </c>
+      <c r="AR399">
+        <v>1.33</v>
+      </c>
+      <c r="AS399">
+        <v>1.57</v>
+      </c>
+      <c r="AT399">
+        <v>1.29</v>
+      </c>
+      <c r="AU399">
+        <v>1.28</v>
+      </c>
+      <c r="AV399">
+        <v>1.51</v>
+      </c>
+      <c r="AW399">
+        <v>2.79</v>
+      </c>
+      <c r="AX399">
+        <v>0</v>
+      </c>
+      <c r="AY399">
+        <v>0</v>
+      </c>
+      <c r="AZ399">
+        <v>0</v>
+      </c>
+      <c r="BA399">
+        <v>0</v>
+      </c>
+      <c r="BB399">
+        <v>0</v>
+      </c>
+      <c r="BC399">
+        <v>2</v>
+      </c>
+      <c r="BD399">
+        <v>0</v>
+      </c>
+      <c r="BE399">
+        <v>0</v>
+      </c>
+      <c r="BF399">
+        <v>4</v>
+      </c>
+      <c r="BG399">
+        <v>3</v>
+      </c>
+      <c r="BH399">
+        <v>9</v>
+      </c>
+      <c r="BI399">
+        <v>5</v>
+      </c>
+      <c r="BJ399">
+        <v>13</v>
+      </c>
+      <c r="BK399">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:63">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>5557090</v>
+      </c>
+      <c r="C400" t="s">
+        <v>63</v>
+      </c>
+      <c r="D400" t="s">
+        <v>64</v>
+      </c>
+      <c r="E400" s="2">
+        <v>45123.45833333334</v>
+      </c>
+      <c r="F400">
+        <v>13</v>
+      </c>
+      <c r="G400" t="s">
+        <v>79</v>
+      </c>
+      <c r="H400" t="s">
+        <v>113</v>
+      </c>
+      <c r="I400">
+        <v>1</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>1</v>
+      </c>
+      <c r="L400">
+        <v>2</v>
+      </c>
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400">
+        <v>2</v>
+      </c>
+      <c r="O400" t="s">
+        <v>360</v>
+      </c>
+      <c r="P400" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q400">
+        <v>3</v>
+      </c>
+      <c r="R400">
+        <v>2</v>
+      </c>
+      <c r="S400">
+        <v>5</v>
+      </c>
+      <c r="T400">
+        <v>2.75</v>
+      </c>
+      <c r="U400">
+        <v>1.91</v>
+      </c>
+      <c r="V400">
+        <v>4.33</v>
+      </c>
+      <c r="W400">
+        <v>1.57</v>
+      </c>
+      <c r="X400">
+        <v>2.13</v>
+      </c>
+      <c r="Y400">
+        <v>3.4</v>
+      </c>
+      <c r="Z400">
+        <v>1.27</v>
+      </c>
+      <c r="AA400">
+        <v>9.5</v>
+      </c>
+      <c r="AB400">
+        <v>1.02</v>
+      </c>
+      <c r="AC400">
+        <v>2.05</v>
+      </c>
+      <c r="AD400">
+        <v>2.85</v>
+      </c>
+      <c r="AE400">
+        <v>3.7</v>
+      </c>
+      <c r="AF400">
+        <v>1.08</v>
+      </c>
+      <c r="AG400">
+        <v>6.4</v>
+      </c>
+      <c r="AH400">
+        <v>1.5</v>
+      </c>
+      <c r="AI400">
+        <v>2.35</v>
+      </c>
+      <c r="AJ400">
+        <v>2.43</v>
+      </c>
+      <c r="AK400">
+        <v>1.43</v>
+      </c>
+      <c r="AL400">
+        <v>2.11</v>
+      </c>
+      <c r="AM400">
+        <v>1.69</v>
+      </c>
+      <c r="AN400">
+        <v>1.23</v>
+      </c>
+      <c r="AO400">
+        <v>1.37</v>
+      </c>
+      <c r="AP400">
+        <v>1.67</v>
+      </c>
+      <c r="AQ400">
+        <v>2.33</v>
+      </c>
+      <c r="AR400">
+        <v>2.17</v>
+      </c>
+      <c r="AS400">
+        <v>2.43</v>
+      </c>
+      <c r="AT400">
+        <v>1.86</v>
+      </c>
+      <c r="AU400">
+        <v>1.57</v>
+      </c>
+      <c r="AV400">
+        <v>1.22</v>
+      </c>
+      <c r="AW400">
+        <v>2.79</v>
+      </c>
+      <c r="AX400">
+        <v>0</v>
+      </c>
+      <c r="AY400">
+        <v>0</v>
+      </c>
+      <c r="AZ400">
+        <v>0</v>
+      </c>
+      <c r="BA400">
+        <v>0</v>
+      </c>
+      <c r="BB400">
+        <v>0</v>
+      </c>
+      <c r="BC400">
+        <v>0</v>
+      </c>
+      <c r="BD400">
+        <v>0</v>
+      </c>
+      <c r="BE400">
+        <v>0</v>
+      </c>
+      <c r="BF400">
+        <v>5</v>
+      </c>
+      <c r="BG400">
+        <v>9</v>
+      </c>
+      <c r="BH400">
+        <v>5</v>
+      </c>
+      <c r="BI400">
+        <v>4</v>
+      </c>
+      <c r="BJ400">
+        <v>10</v>
+      </c>
+      <c r="BK400">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:63">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>5557146</v>
+      </c>
+      <c r="C401" t="s">
+        <v>63</v>
+      </c>
+      <c r="D401" t="s">
+        <v>64</v>
+      </c>
+      <c r="E401" s="2">
+        <v>45123.625</v>
+      </c>
+      <c r="F401">
+        <v>13</v>
+      </c>
+      <c r="G401" t="s">
+        <v>81</v>
+      </c>
+      <c r="H401" t="s">
+        <v>116</v>
+      </c>
+      <c r="I401">
+        <v>1</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>1</v>
+      </c>
+      <c r="L401">
+        <v>4</v>
+      </c>
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401">
+        <v>4</v>
+      </c>
+      <c r="O401" t="s">
+        <v>361</v>
+      </c>
+      <c r="P401" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q401">
+        <v>9</v>
+      </c>
+      <c r="R401">
+        <v>4</v>
+      </c>
+      <c r="S401">
+        <v>13</v>
+      </c>
+      <c r="T401">
+        <v>3.5</v>
+      </c>
+      <c r="U401">
+        <v>1.83</v>
+      </c>
+      <c r="V401">
+        <v>3.6</v>
+      </c>
+      <c r="W401">
+        <v>1.48</v>
+      </c>
+      <c r="X401">
+        <v>2.39</v>
+      </c>
+      <c r="Y401">
+        <v>3.3</v>
+      </c>
+      <c r="Z401">
+        <v>1.29</v>
+      </c>
+      <c r="AA401">
+        <v>10.5</v>
+      </c>
+      <c r="AB401">
+        <v>1.04</v>
+      </c>
+      <c r="AC401">
+        <v>2.8</v>
+      </c>
+      <c r="AD401">
+        <v>2.6</v>
+      </c>
+      <c r="AE401">
+        <v>2.75</v>
+      </c>
+      <c r="AF401">
+        <v>1.12</v>
+      </c>
+      <c r="AG401">
+        <v>5.75</v>
+      </c>
+      <c r="AH401">
+        <v>1.58</v>
+      </c>
+      <c r="AI401">
+        <v>2.25</v>
+      </c>
+      <c r="AJ401">
+        <v>2.86</v>
+      </c>
+      <c r="AK401">
+        <v>1.32</v>
+      </c>
+      <c r="AL401">
+        <v>1.95</v>
+      </c>
+      <c r="AM401">
+        <v>1.75</v>
+      </c>
+      <c r="AN401">
+        <v>1.4</v>
+      </c>
+      <c r="AO401">
+        <v>1.36</v>
+      </c>
+      <c r="AP401">
+        <v>1.36</v>
+      </c>
+      <c r="AQ401">
+        <v>1.5</v>
+      </c>
+      <c r="AR401">
+        <v>0.83</v>
+      </c>
+      <c r="AS401">
+        <v>1.71</v>
+      </c>
+      <c r="AT401">
+        <v>0.71</v>
+      </c>
+      <c r="AU401">
+        <v>1.81</v>
+      </c>
+      <c r="AV401">
+        <v>1.54</v>
+      </c>
+      <c r="AW401">
+        <v>3.35</v>
+      </c>
+      <c r="AX401">
+        <v>0</v>
+      </c>
+      <c r="AY401">
+        <v>0</v>
+      </c>
+      <c r="AZ401">
+        <v>0</v>
+      </c>
+      <c r="BA401">
+        <v>0</v>
+      </c>
+      <c r="BB401">
+        <v>0</v>
+      </c>
+      <c r="BC401">
+        <v>2.38</v>
+      </c>
+      <c r="BD401">
+        <v>0</v>
+      </c>
+      <c r="BE401">
+        <v>0</v>
+      </c>
+      <c r="BF401">
+        <v>9</v>
+      </c>
+      <c r="BG401">
+        <v>4</v>
+      </c>
+      <c r="BH401">
+        <v>6</v>
+      </c>
+      <c r="BI401">
+        <v>6</v>
+      </c>
+      <c r="BJ401">
+        <v>15</v>
+      </c>
+      <c r="BK401">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:63">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>5556868</v>
+      </c>
+      <c r="C402" t="s">
+        <v>63</v>
+      </c>
+      <c r="D402" t="s">
+        <v>64</v>
+      </c>
+      <c r="E402" s="2">
+        <v>45123.64583333334</v>
+      </c>
+      <c r="F402">
+        <v>13</v>
+      </c>
+      <c r="G402" t="s">
+        <v>84</v>
+      </c>
+      <c r="H402" t="s">
+        <v>127</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>1</v>
+      </c>
+      <c r="K402">
+        <v>1</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+      <c r="M402">
+        <v>1</v>
+      </c>
+      <c r="N402">
+        <v>1</v>
+      </c>
+      <c r="O402" t="s">
+        <v>135</v>
+      </c>
+      <c r="P402" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q402">
+        <v>4</v>
+      </c>
+      <c r="R402">
+        <v>3</v>
+      </c>
+      <c r="S402">
+        <v>7</v>
+      </c>
+      <c r="T402">
+        <v>8.1</v>
+      </c>
+      <c r="U402">
+        <v>2.17</v>
+      </c>
+      <c r="V402">
+        <v>1.92</v>
+      </c>
+      <c r="W402">
+        <v>1.41</v>
+      </c>
+      <c r="X402">
+        <v>2.7</v>
+      </c>
+      <c r="Y402">
+        <v>2.9</v>
+      </c>
+      <c r="Z402">
+        <v>1.36</v>
+      </c>
+      <c r="AA402">
+        <v>7.5</v>
+      </c>
+      <c r="AB402">
+        <v>1.06</v>
+      </c>
+      <c r="AC402">
+        <v>7</v>
+      </c>
+      <c r="AD402">
+        <v>4</v>
+      </c>
+      <c r="AE402">
+        <v>1.36</v>
+      </c>
+      <c r="AF402">
+        <v>1.03</v>
+      </c>
+      <c r="AG402">
+        <v>9</v>
+      </c>
+      <c r="AH402">
+        <v>1.34</v>
+      </c>
+      <c r="AI402">
+        <v>3</v>
+      </c>
+      <c r="AJ402">
+        <v>2.05</v>
+      </c>
+      <c r="AK402">
+        <v>1.69</v>
+      </c>
+      <c r="AL402">
+        <v>2.4</v>
+      </c>
+      <c r="AM402">
+        <v>1.54</v>
+      </c>
+      <c r="AN402">
+        <v>2.85</v>
+      </c>
+      <c r="AO402">
+        <v>1.17</v>
+      </c>
+      <c r="AP402">
+        <v>1.04</v>
+      </c>
+      <c r="AQ402">
+        <v>0.67</v>
+      </c>
+      <c r="AR402">
+        <v>0.33</v>
+      </c>
+      <c r="AS402">
+        <v>0.57</v>
+      </c>
+      <c r="AT402">
+        <v>0.71</v>
+      </c>
+      <c r="AU402">
+        <v>1.68</v>
+      </c>
+      <c r="AV402">
+        <v>1.9</v>
+      </c>
+      <c r="AW402">
+        <v>3.58</v>
+      </c>
+      <c r="AX402">
+        <v>0</v>
+      </c>
+      <c r="AY402">
+        <v>0</v>
+      </c>
+      <c r="AZ402">
+        <v>0</v>
+      </c>
+      <c r="BA402">
+        <v>0</v>
+      </c>
+      <c r="BB402">
+        <v>0</v>
+      </c>
+      <c r="BC402">
+        <v>0</v>
+      </c>
+      <c r="BD402">
+        <v>0</v>
+      </c>
+      <c r="BE402">
+        <v>0</v>
+      </c>
+      <c r="BF402">
+        <v>7</v>
+      </c>
+      <c r="BG402">
+        <v>6</v>
+      </c>
+      <c r="BH402">
+        <v>4</v>
+      </c>
+      <c r="BI402">
+        <v>4</v>
+      </c>
+      <c r="BJ402">
+        <v>11</v>
+      </c>
+      <c r="BK402">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403" spans="1:63">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>5556977</v>
+      </c>
+      <c r="C403" t="s">
+        <v>63</v>
+      </c>
+      <c r="D403" t="s">
+        <v>64</v>
+      </c>
+      <c r="E403" s="2">
+        <v>45123.64583333334</v>
+      </c>
+      <c r="F403">
+        <v>13</v>
+      </c>
+      <c r="G403" t="s">
+        <v>68</v>
+      </c>
+      <c r="H403" t="s">
+        <v>104</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>2</v>
+      </c>
+      <c r="M403">
+        <v>0</v>
+      </c>
+      <c r="N403">
+        <v>2</v>
+      </c>
+      <c r="O403" t="s">
+        <v>362</v>
+      </c>
+      <c r="P403" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q403">
+        <v>5</v>
+      </c>
+      <c r="R403">
+        <v>4</v>
+      </c>
+      <c r="S403">
+        <v>9</v>
+      </c>
+      <c r="T403">
+        <v>2.5</v>
+      </c>
+      <c r="U403">
+        <v>2.05</v>
+      </c>
+      <c r="V403">
+        <v>4.5</v>
+      </c>
+      <c r="W403">
+        <v>1.38</v>
+      </c>
+      <c r="X403">
+        <v>2.8</v>
+      </c>
+      <c r="Y403">
+        <v>2.75</v>
+      </c>
+      <c r="Z403">
+        <v>1.4</v>
+      </c>
+      <c r="AA403">
+        <v>6.9</v>
+      </c>
+      <c r="AB403">
+        <v>1.07</v>
+      </c>
+      <c r="AC403">
+        <v>1.53</v>
+      </c>
+      <c r="AD403">
+        <v>3.6</v>
+      </c>
+      <c r="AE403">
+        <v>5.5</v>
+      </c>
+      <c r="AF403">
+        <v>1.05</v>
+      </c>
+      <c r="AG403">
+        <v>9.75</v>
+      </c>
+      <c r="AH403">
+        <v>1.31</v>
+      </c>
+      <c r="AI403">
+        <v>3.1</v>
+      </c>
+      <c r="AJ403">
+        <v>1.94</v>
+      </c>
+      <c r="AK403">
+        <v>1.77</v>
+      </c>
+      <c r="AL403">
+        <v>1.9</v>
+      </c>
+      <c r="AM403">
+        <v>1.8</v>
+      </c>
+      <c r="AN403">
+        <v>1.16</v>
+      </c>
+      <c r="AO403">
+        <v>1.28</v>
+      </c>
+      <c r="AP403">
+        <v>2</v>
+      </c>
+      <c r="AQ403">
+        <v>2</v>
+      </c>
+      <c r="AR403">
+        <v>1</v>
+      </c>
+      <c r="AS403">
+        <v>2.14</v>
+      </c>
+      <c r="AT403">
+        <v>0.86</v>
+      </c>
+      <c r="AU403">
+        <v>1.8</v>
+      </c>
+      <c r="AV403">
+        <v>1.73</v>
+      </c>
+      <c r="AW403">
+        <v>3.53</v>
+      </c>
+      <c r="AX403">
+        <v>0</v>
+      </c>
+      <c r="AY403">
+        <v>0</v>
+      </c>
+      <c r="AZ403">
+        <v>0</v>
+      </c>
+      <c r="BA403">
+        <v>0</v>
+      </c>
+      <c r="BB403">
+        <v>0</v>
+      </c>
+      <c r="BC403">
+        <v>0</v>
+      </c>
+      <c r="BD403">
+        <v>0</v>
+      </c>
+      <c r="BE403">
+        <v>0</v>
+      </c>
+      <c r="BF403">
+        <v>6</v>
+      </c>
+      <c r="BG403">
+        <v>2</v>
+      </c>
+      <c r="BH403">
+        <v>5</v>
+      </c>
+      <c r="BI403">
+        <v>6</v>
+      </c>
+      <c r="BJ403">
+        <v>11</v>
+      </c>
+      <c r="BK403">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:63">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>5556810</v>
+      </c>
+      <c r="C404" t="s">
+        <v>63</v>
+      </c>
+      <c r="D404" t="s">
+        <v>64</v>
+      </c>
+      <c r="E404" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F404">
+        <v>13</v>
+      </c>
+      <c r="G404" t="s">
+        <v>85</v>
+      </c>
+      <c r="H404" t="s">
+        <v>123</v>
+      </c>
+      <c r="I404">
+        <v>1</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>1</v>
+      </c>
+      <c r="L404">
+        <v>2</v>
+      </c>
+      <c r="M404">
+        <v>1</v>
+      </c>
+      <c r="N404">
+        <v>3</v>
+      </c>
+      <c r="O404" t="s">
+        <v>363</v>
+      </c>
+      <c r="P404" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q404">
+        <v>7</v>
+      </c>
+      <c r="R404">
+        <v>0</v>
+      </c>
+      <c r="S404">
+        <v>7</v>
+      </c>
+      <c r="T404">
+        <v>2.1</v>
+      </c>
+      <c r="U404">
+        <v>2.1</v>
+      </c>
+      <c r="V404">
+        <v>6</v>
+      </c>
+      <c r="W404">
+        <v>1.42</v>
+      </c>
+      <c r="X404">
+        <v>2.65</v>
+      </c>
+      <c r="Y404">
+        <v>2.9</v>
+      </c>
+      <c r="Z404">
+        <v>1.35</v>
+      </c>
+      <c r="AA404">
+        <v>7.7</v>
+      </c>
+      <c r="AB404">
+        <v>1.05</v>
+      </c>
+      <c r="AC404">
+        <v>1.55</v>
+      </c>
+      <c r="AD404">
+        <v>3.6</v>
+      </c>
+      <c r="AE404">
+        <v>5.5</v>
+      </c>
+      <c r="AF404">
+        <v>1.05</v>
+      </c>
+      <c r="AG404">
+        <v>8</v>
+      </c>
+      <c r="AH404">
+        <v>1.36</v>
+      </c>
+      <c r="AI404">
+        <v>2.9</v>
+      </c>
+      <c r="AJ404">
+        <v>2.1</v>
+      </c>
+      <c r="AK404">
+        <v>1.66</v>
+      </c>
+      <c r="AL404">
+        <v>2.14</v>
+      </c>
+      <c r="AM404">
+        <v>1.67</v>
+      </c>
+      <c r="AN404">
+        <v>1.12</v>
+      </c>
+      <c r="AO404">
+        <v>1.26</v>
+      </c>
+      <c r="AP404">
+        <v>2.2</v>
+      </c>
+      <c r="AQ404">
+        <v>2</v>
+      </c>
+      <c r="AR404">
+        <v>0.67</v>
+      </c>
+      <c r="AS404">
+        <v>2.14</v>
+      </c>
+      <c r="AT404">
+        <v>0.57</v>
+      </c>
+      <c r="AU404">
+        <v>2.21</v>
+      </c>
+      <c r="AV404">
+        <v>1.42</v>
+      </c>
+      <c r="AW404">
+        <v>3.63</v>
+      </c>
+      <c r="AX404">
+        <v>0</v>
+      </c>
+      <c r="AY404">
+        <v>0</v>
+      </c>
+      <c r="AZ404">
+        <v>0</v>
+      </c>
+      <c r="BA404">
+        <v>0</v>
+      </c>
+      <c r="BB404">
+        <v>0</v>
+      </c>
+      <c r="BC404">
+        <v>1.83</v>
+      </c>
+      <c r="BD404">
+        <v>1.93</v>
+      </c>
+      <c r="BE404">
+        <v>0</v>
+      </c>
+      <c r="BF404">
+        <v>8</v>
+      </c>
+      <c r="BG404">
+        <v>4</v>
+      </c>
+      <c r="BH404">
+        <v>9</v>
+      </c>
+      <c r="BI404">
+        <v>2</v>
+      </c>
+      <c r="BJ404">
+        <v>17</v>
+      </c>
+      <c r="BK404">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:63">
+      <c r="A405" s="1">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>5557147</v>
+      </c>
+      <c r="C405" t="s">
+        <v>63</v>
+      </c>
+      <c r="D405" t="s">
+        <v>64</v>
+      </c>
+      <c r="E405" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F405">
+        <v>13</v>
+      </c>
+      <c r="G405" t="s">
+        <v>93</v>
+      </c>
+      <c r="H405" t="s">
+        <v>99</v>
+      </c>
+      <c r="I405">
+        <v>1</v>
+      </c>
+      <c r="J405">
+        <v>5</v>
+      </c>
+      <c r="K405">
+        <v>6</v>
+      </c>
+      <c r="L405">
+        <v>5</v>
+      </c>
+      <c r="M405">
+        <v>5</v>
+      </c>
+      <c r="N405">
+        <v>10</v>
+      </c>
+      <c r="O405" t="s">
+        <v>364</v>
+      </c>
+      <c r="P405" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q405">
+        <v>-1</v>
+      </c>
+      <c r="R405">
+        <v>-1</v>
+      </c>
+      <c r="S405">
+        <v>-1</v>
+      </c>
+      <c r="T405">
+        <v>5.25</v>
+      </c>
+      <c r="U405">
+        <v>1.71</v>
+      </c>
+      <c r="V405">
+        <v>2.7</v>
+      </c>
+      <c r="W405">
+        <v>1.55</v>
+      </c>
+      <c r="X405">
+        <v>2.22</v>
+      </c>
+      <c r="Y405">
+        <v>3.56</v>
+      </c>
+      <c r="Z405">
+        <v>1.25</v>
+      </c>
+      <c r="AA405">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB405">
+        <v>1.02</v>
+      </c>
+      <c r="AC405">
+        <v>3.8</v>
+      </c>
+      <c r="AD405">
+        <v>2.9</v>
+      </c>
+      <c r="AE405">
+        <v>2</v>
+      </c>
+      <c r="AF405">
+        <v>1.09</v>
+      </c>
+      <c r="AG405">
+        <v>7</v>
+      </c>
+      <c r="AH405">
+        <v>1.5</v>
+      </c>
+      <c r="AI405">
+        <v>2.42</v>
+      </c>
+      <c r="AJ405">
+        <v>1.49</v>
+      </c>
+      <c r="AK405">
+        <v>2.37</v>
+      </c>
+      <c r="AL405">
+        <v>2.05</v>
+      </c>
+      <c r="AM405">
+        <v>1.68</v>
+      </c>
+      <c r="AN405">
+        <v>1.74</v>
+      </c>
+      <c r="AO405">
+        <v>1.48</v>
+      </c>
+      <c r="AP405">
+        <v>1.12</v>
+      </c>
+      <c r="AQ405">
+        <v>0.67</v>
+      </c>
+      <c r="AR405">
+        <v>1.5</v>
+      </c>
+      <c r="AS405">
+        <v>0.71</v>
+      </c>
+      <c r="AT405">
+        <v>1.43</v>
+      </c>
+      <c r="AU405">
+        <v>1.64</v>
+      </c>
+      <c r="AV405">
+        <v>1.11</v>
+      </c>
+      <c r="AW405">
+        <v>2.75</v>
+      </c>
+      <c r="AX405">
+        <v>0</v>
+      </c>
+      <c r="AY405">
+        <v>0</v>
+      </c>
+      <c r="AZ405">
+        <v>0</v>
+      </c>
+      <c r="BA405">
+        <v>0</v>
+      </c>
+      <c r="BB405">
+        <v>0</v>
+      </c>
+      <c r="BC405">
+        <v>0</v>
+      </c>
+      <c r="BD405">
+        <v>0</v>
+      </c>
+      <c r="BE405">
+        <v>0</v>
+      </c>
+      <c r="BF405">
+        <v>-1</v>
+      </c>
+      <c r="BG405">
+        <v>-1</v>
+      </c>
+      <c r="BH405">
+        <v>-1</v>
+      </c>
+      <c r="BI405">
+        <v>-1</v>
+      </c>
+      <c r="BJ405">
+        <v>-1</v>
+      </c>
+      <c r="BK405">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:63">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>5556811</v>
+      </c>
+      <c r="C406" t="s">
+        <v>63</v>
+      </c>
+      <c r="D406" t="s">
+        <v>64</v>
+      </c>
+      <c r="E406" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F406">
+        <v>13</v>
+      </c>
+      <c r="G406" t="s">
+        <v>82</v>
+      </c>
+      <c r="H406" t="s">
+        <v>119</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <v>3</v>
+      </c>
+      <c r="M406">
+        <v>1</v>
+      </c>
+      <c r="N406">
+        <v>4</v>
+      </c>
+      <c r="O406" t="s">
+        <v>365</v>
+      </c>
+      <c r="P406" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q406">
+        <v>-1</v>
+      </c>
+      <c r="R406">
+        <v>-1</v>
+      </c>
+      <c r="S406">
+        <v>-1</v>
+      </c>
+      <c r="T406">
+        <v>2.6</v>
+      </c>
+      <c r="U406">
+        <v>1.95</v>
+      </c>
+      <c r="V406">
+        <v>3.9</v>
+      </c>
+      <c r="W406">
+        <v>1.45</v>
+      </c>
+      <c r="X406">
+        <v>2.48</v>
+      </c>
+      <c r="Y406">
+        <v>3.09</v>
+      </c>
+      <c r="Z406">
+        <v>1.3</v>
+      </c>
+      <c r="AA406">
+        <v>8.1</v>
+      </c>
+      <c r="AB406">
+        <v>1.04</v>
+      </c>
+      <c r="AC406">
+        <v>1.9</v>
+      </c>
+      <c r="AD406">
+        <v>3.25</v>
+      </c>
+      <c r="AE406">
+        <v>3.8</v>
+      </c>
+      <c r="AF406">
+        <v>1.06</v>
+      </c>
+      <c r="AG406">
+        <v>8.75</v>
+      </c>
+      <c r="AH406">
+        <v>1.35</v>
+      </c>
+      <c r="AI406">
+        <v>2.9</v>
+      </c>
+      <c r="AJ406">
+        <v>2.03</v>
+      </c>
+      <c r="AK406">
+        <v>1.7</v>
+      </c>
+      <c r="AL406">
+        <v>1.8</v>
+      </c>
+      <c r="AM406">
+        <v>1.9</v>
+      </c>
+      <c r="AN406">
+        <v>1.25</v>
+      </c>
+      <c r="AO406">
+        <v>1.31</v>
+      </c>
+      <c r="AP406">
+        <v>1.74</v>
+      </c>
+      <c r="AQ406">
+        <v>1.17</v>
+      </c>
+      <c r="AR406">
+        <v>0.33</v>
+      </c>
+      <c r="AS406">
+        <v>1.43</v>
+      </c>
+      <c r="AT406">
+        <v>0.29</v>
+      </c>
+      <c r="AU406">
+        <v>1.89</v>
+      </c>
+      <c r="AV406">
+        <v>0.91</v>
+      </c>
+      <c r="AW406">
+        <v>2.8</v>
+      </c>
+      <c r="AX406">
+        <v>0</v>
+      </c>
+      <c r="AY406">
+        <v>0</v>
+      </c>
+      <c r="AZ406">
+        <v>0</v>
+      </c>
+      <c r="BA406">
+        <v>0</v>
+      </c>
+      <c r="BB406">
+        <v>0</v>
+      </c>
+      <c r="BC406">
+        <v>0</v>
+      </c>
+      <c r="BD406">
+        <v>0</v>
+      </c>
+      <c r="BE406">
+        <v>0</v>
+      </c>
+      <c r="BF406">
+        <v>-1</v>
+      </c>
+      <c r="BG406">
+        <v>-1</v>
+      </c>
+      <c r="BH406">
+        <v>-1</v>
+      </c>
+      <c r="BI406">
+        <v>-1</v>
+      </c>
+      <c r="BJ406">
+        <v>-1</v>
+      </c>
+      <c r="BK406">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:63">
+      <c r="A407" s="1">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>5556754</v>
+      </c>
+      <c r="C407" t="s">
+        <v>63</v>
+      </c>
+      <c r="D407" t="s">
+        <v>64</v>
+      </c>
+      <c r="E407" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F407">
+        <v>13</v>
+      </c>
+      <c r="G407" t="s">
+        <v>70</v>
+      </c>
+      <c r="H407" t="s">
+        <v>114</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <v>0</v>
+      </c>
+      <c r="M407">
+        <v>1</v>
+      </c>
+      <c r="N407">
+        <v>1</v>
+      </c>
+      <c r="O407" t="s">
+        <v>135</v>
+      </c>
+      <c r="P407" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q407">
+        <v>-1</v>
+      </c>
+      <c r="R407">
+        <v>-1</v>
+      </c>
+      <c r="S407">
+        <v>-1</v>
+      </c>
+      <c r="T407">
+        <v>3.02</v>
+      </c>
+      <c r="U407">
+        <v>2.1</v>
+      </c>
+      <c r="V407">
+        <v>3.22</v>
+      </c>
+      <c r="W407">
+        <v>1.36</v>
+      </c>
+      <c r="X407">
+        <v>2.9</v>
+      </c>
+      <c r="Y407">
+        <v>2.7</v>
+      </c>
+      <c r="Z407">
+        <v>1.41</v>
+      </c>
+      <c r="AA407">
+        <v>6.7</v>
+      </c>
+      <c r="AB407">
+        <v>1.07</v>
+      </c>
+      <c r="AC407">
+        <v>1.91</v>
+      </c>
+      <c r="AD407">
+        <v>3.3</v>
+      </c>
+      <c r="AE407">
+        <v>3.6</v>
+      </c>
+      <c r="AF407">
+        <v>1.02</v>
+      </c>
+      <c r="AG407">
+        <v>10</v>
+      </c>
+      <c r="AH407">
+        <v>1.28</v>
+      </c>
+      <c r="AI407">
+        <v>3.3</v>
+      </c>
+      <c r="AJ407">
+        <v>1.81</v>
+      </c>
+      <c r="AK407">
+        <v>1.89</v>
+      </c>
+      <c r="AL407">
+        <v>1.68</v>
+      </c>
+      <c r="AM407">
+        <v>2.13</v>
+      </c>
+      <c r="AN407">
+        <v>1.43</v>
+      </c>
+      <c r="AO407">
+        <v>1.28</v>
+      </c>
+      <c r="AP407">
+        <v>1.47</v>
+      </c>
+      <c r="AQ407">
+        <v>1.17</v>
+      </c>
+      <c r="AR407">
+        <v>1</v>
+      </c>
+      <c r="AS407">
+        <v>1</v>
+      </c>
+      <c r="AT407">
+        <v>1.29</v>
+      </c>
+      <c r="AU407">
+        <v>1.12</v>
+      </c>
+      <c r="AV407">
+        <v>1.31</v>
+      </c>
+      <c r="AW407">
+        <v>2.43</v>
+      </c>
+      <c r="AX407">
+        <v>0</v>
+      </c>
+      <c r="AY407">
+        <v>0</v>
+      </c>
+      <c r="AZ407">
+        <v>0</v>
+      </c>
+      <c r="BA407">
+        <v>0</v>
+      </c>
+      <c r="BB407">
+        <v>0</v>
+      </c>
+      <c r="BC407">
+        <v>0</v>
+      </c>
+      <c r="BD407">
+        <v>0</v>
+      </c>
+      <c r="BE407">
+        <v>0</v>
+      </c>
+      <c r="BF407">
+        <v>-1</v>
+      </c>
+      <c r="BG407">
+        <v>-1</v>
+      </c>
+      <c r="BH407">
+        <v>-1</v>
+      </c>
+      <c r="BI407">
+        <v>-1</v>
+      </c>
+      <c r="BJ407">
+        <v>-1</v>
+      </c>
+      <c r="BK407">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:63">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>5556865</v>
+      </c>
+      <c r="C408" t="s">
+        <v>63</v>
+      </c>
+      <c r="D408" t="s">
+        <v>64</v>
+      </c>
+      <c r="E408" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F408">
+        <v>13</v>
+      </c>
+      <c r="G408" t="s">
+        <v>83</v>
+      </c>
+      <c r="H408" t="s">
+        <v>102</v>
+      </c>
+      <c r="I408">
+        <v>1</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>1</v>
+      </c>
+      <c r="L408">
+        <v>3</v>
+      </c>
+      <c r="M408">
+        <v>1</v>
+      </c>
+      <c r="N408">
+        <v>4</v>
+      </c>
+      <c r="O408" t="s">
+        <v>366</v>
+      </c>
+      <c r="P408" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q408">
+        <v>-1</v>
+      </c>
+      <c r="R408">
+        <v>-1</v>
+      </c>
+      <c r="S408">
+        <v>-1</v>
+      </c>
+      <c r="T408">
+        <v>2.2</v>
+      </c>
+      <c r="U408">
+        <v>2.03</v>
+      </c>
+      <c r="V408">
+        <v>6.31</v>
+      </c>
+      <c r="W408">
+        <v>1.43</v>
+      </c>
+      <c r="X408">
+        <v>2.6</v>
+      </c>
+      <c r="Y408">
+        <v>3</v>
+      </c>
+      <c r="Z408">
+        <v>1.34</v>
+      </c>
+      <c r="AA408">
+        <v>8</v>
+      </c>
+      <c r="AB408">
+        <v>1.05</v>
+      </c>
+      <c r="AC408">
+        <v>1.8</v>
+      </c>
+      <c r="AD408">
+        <v>3.25</v>
+      </c>
+      <c r="AE408">
+        <v>4.2</v>
+      </c>
+      <c r="AF408">
+        <v>1.05</v>
+      </c>
+      <c r="AG408">
+        <v>8</v>
+      </c>
+      <c r="AH408">
+        <v>1.37</v>
+      </c>
+      <c r="AI408">
+        <v>2.85</v>
+      </c>
+      <c r="AJ408">
+        <v>2.14</v>
+      </c>
+      <c r="AK408">
+        <v>1.63</v>
+      </c>
+      <c r="AL408">
+        <v>1.98</v>
+      </c>
+      <c r="AM408">
+        <v>1.79</v>
+      </c>
+      <c r="AN408">
+        <v>1.1</v>
+      </c>
+      <c r="AO408">
+        <v>1.26</v>
+      </c>
+      <c r="AP408">
+        <v>2.16</v>
+      </c>
+      <c r="AQ408">
+        <v>2.67</v>
+      </c>
+      <c r="AR408">
+        <v>0.17</v>
+      </c>
+      <c r="AS408">
+        <v>2.71</v>
+      </c>
+      <c r="AT408">
+        <v>0.14</v>
+      </c>
+      <c r="AU408">
+        <v>1.63</v>
+      </c>
+      <c r="AV408">
+        <v>1.52</v>
+      </c>
+      <c r="AW408">
+        <v>3.15</v>
+      </c>
+      <c r="AX408">
+        <v>0</v>
+      </c>
+      <c r="AY408">
+        <v>0</v>
+      </c>
+      <c r="AZ408">
+        <v>0</v>
+      </c>
+      <c r="BA408">
+        <v>0</v>
+      </c>
+      <c r="BB408">
+        <v>0</v>
+      </c>
+      <c r="BC408">
+        <v>0</v>
+      </c>
+      <c r="BD408">
+        <v>0</v>
+      </c>
+      <c r="BE408">
+        <v>0</v>
+      </c>
+      <c r="BF408">
+        <v>-1</v>
+      </c>
+      <c r="BG408">
+        <v>-1</v>
+      </c>
+      <c r="BH408">
+        <v>-1</v>
+      </c>
+      <c r="BI408">
+        <v>-1</v>
+      </c>
+      <c r="BJ408">
+        <v>-1</v>
+      </c>
+      <c r="BK408">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:63">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>5556756</v>
+      </c>
+      <c r="C409" t="s">
+        <v>63</v>
+      </c>
+      <c r="D409" t="s">
+        <v>64</v>
+      </c>
+      <c r="E409" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F409">
+        <v>13</v>
+      </c>
+      <c r="G409" t="s">
+        <v>90</v>
+      </c>
+      <c r="H409" t="s">
+        <v>117</v>
+      </c>
+      <c r="I409">
+        <v>1</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>1</v>
+      </c>
+      <c r="L409">
+        <v>2</v>
+      </c>
+      <c r="M409">
+        <v>1</v>
+      </c>
+      <c r="N409">
+        <v>3</v>
+      </c>
+      <c r="O409" t="s">
+        <v>367</v>
+      </c>
+      <c r="P409" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q409">
+        <v>2</v>
+      </c>
+      <c r="R409">
+        <v>5</v>
+      </c>
+      <c r="S409">
+        <v>7</v>
+      </c>
+      <c r="T409">
+        <v>2.75</v>
+      </c>
+      <c r="U409">
+        <v>2.05</v>
+      </c>
+      <c r="V409">
+        <v>3.75</v>
+      </c>
+      <c r="W409">
+        <v>1.43</v>
+      </c>
+      <c r="X409">
+        <v>2.6</v>
+      </c>
+      <c r="Y409">
+        <v>3</v>
+      </c>
+      <c r="Z409">
+        <v>1.34</v>
+      </c>
+      <c r="AA409">
+        <v>7.9</v>
+      </c>
+      <c r="AB409">
+        <v>1.05</v>
+      </c>
+      <c r="AC409">
+        <v>2.15</v>
+      </c>
+      <c r="AD409">
+        <v>3</v>
+      </c>
+      <c r="AE409">
+        <v>3.25</v>
+      </c>
+      <c r="AF409">
+        <v>1.05</v>
+      </c>
+      <c r="AG409">
+        <v>8</v>
+      </c>
+      <c r="AH409">
+        <v>1.44</v>
+      </c>
+      <c r="AI409">
+        <v>2.4</v>
+      </c>
+      <c r="AJ409">
+        <v>2.13</v>
+      </c>
+      <c r="AK409">
+        <v>1.64</v>
+      </c>
+      <c r="AL409">
+        <v>1.97</v>
+      </c>
+      <c r="AM409">
+        <v>1.79</v>
+      </c>
+      <c r="AN409">
+        <v>1.27</v>
+      </c>
+      <c r="AO409">
+        <v>1.34</v>
+      </c>
+      <c r="AP409">
+        <v>1.64</v>
+      </c>
+      <c r="AQ409">
+        <v>2.67</v>
+      </c>
+      <c r="AR409">
+        <v>1.5</v>
+      </c>
+      <c r="AS409">
+        <v>2.71</v>
+      </c>
+      <c r="AT409">
+        <v>1.29</v>
+      </c>
+      <c r="AU409">
+        <v>1.85</v>
+      </c>
+      <c r="AV409">
+        <v>1.36</v>
+      </c>
+      <c r="AW409">
+        <v>3.21</v>
+      </c>
+      <c r="AX409">
+        <v>0</v>
+      </c>
+      <c r="AY409">
+        <v>0</v>
+      </c>
+      <c r="AZ409">
+        <v>0</v>
+      </c>
+      <c r="BA409">
+        <v>0</v>
+      </c>
+      <c r="BB409">
+        <v>0</v>
+      </c>
+      <c r="BC409">
+        <v>2.2</v>
+      </c>
+      <c r="BD409">
+        <v>0</v>
+      </c>
+      <c r="BE409">
+        <v>0</v>
+      </c>
+      <c r="BF409">
+        <v>6</v>
+      </c>
+      <c r="BG409">
+        <v>6</v>
+      </c>
+      <c r="BH409">
+        <v>5</v>
+      </c>
+      <c r="BI409">
+        <v>5</v>
+      </c>
+      <c r="BJ409">
+        <v>11</v>
+      </c>
+      <c r="BK409">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="410" spans="1:63">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>5556867</v>
+      </c>
+      <c r="C410" t="s">
+        <v>63</v>
+      </c>
+      <c r="D410" t="s">
+        <v>64</v>
+      </c>
+      <c r="E410" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F410">
+        <v>13</v>
+      </c>
+      <c r="G410" t="s">
+        <v>95</v>
+      </c>
+      <c r="H410" t="s">
+        <v>126</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>1</v>
+      </c>
+      <c r="K410">
+        <v>1</v>
+      </c>
+      <c r="L410">
+        <v>1</v>
+      </c>
+      <c r="M410">
+        <v>1</v>
+      </c>
+      <c r="N410">
+        <v>2</v>
+      </c>
+      <c r="O410" t="s">
+        <v>368</v>
+      </c>
+      <c r="P410" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q410">
+        <v>5</v>
+      </c>
+      <c r="R410">
+        <v>1</v>
+      </c>
+      <c r="S410">
+        <v>6</v>
+      </c>
+      <c r="T410">
+        <v>2.38</v>
+      </c>
+      <c r="U410">
+        <v>2.05</v>
+      </c>
+      <c r="V410">
+        <v>5</v>
+      </c>
+      <c r="W410">
+        <v>1.39</v>
+      </c>
+      <c r="X410">
+        <v>2.75</v>
+      </c>
+      <c r="Y410">
+        <v>2.8</v>
+      </c>
+      <c r="Z410">
+        <v>1.39</v>
+      </c>
+      <c r="AA410">
+        <v>7.1</v>
+      </c>
+      <c r="AB410">
+        <v>1.06</v>
+      </c>
+      <c r="AC410">
+        <v>1.6</v>
+      </c>
+      <c r="AD410">
+        <v>3.6</v>
+      </c>
+      <c r="AE410">
+        <v>5</v>
+      </c>
+      <c r="AF410">
+        <v>1.04</v>
+      </c>
+      <c r="AG410">
+        <v>10.5</v>
+      </c>
+      <c r="AH410">
+        <v>1.3</v>
+      </c>
+      <c r="AI410">
+        <v>3.2</v>
+      </c>
+      <c r="AJ410">
+        <v>1.96</v>
+      </c>
+      <c r="AK410">
+        <v>1.75</v>
+      </c>
+      <c r="AL410">
+        <v>2.15</v>
+      </c>
+      <c r="AM410">
+        <v>1.62</v>
+      </c>
+      <c r="AN410">
+        <v>1.17</v>
+      </c>
+      <c r="AO410">
+        <v>1.27</v>
+      </c>
+      <c r="AP410">
+        <v>1.95</v>
+      </c>
+      <c r="AQ410">
+        <v>2.33</v>
+      </c>
+      <c r="AR410">
+        <v>0.83</v>
+      </c>
+      <c r="AS410">
+        <v>2.14</v>
+      </c>
+      <c r="AT410">
+        <v>0.86</v>
+      </c>
+      <c r="AU410">
+        <v>1.91</v>
+      </c>
+      <c r="AV410">
+        <v>1.36</v>
+      </c>
+      <c r="AW410">
+        <v>3.27</v>
+      </c>
+      <c r="AX410">
+        <v>0</v>
+      </c>
+      <c r="AY410">
+        <v>0</v>
+      </c>
+      <c r="AZ410">
+        <v>0</v>
+      </c>
+      <c r="BA410">
+        <v>0</v>
+      </c>
+      <c r="BB410">
+        <v>0</v>
+      </c>
+      <c r="BC410">
+        <v>1.91</v>
+      </c>
+      <c r="BD410">
+        <v>2</v>
+      </c>
+      <c r="BE410">
+        <v>0</v>
+      </c>
+      <c r="BF410">
+        <v>4</v>
+      </c>
+      <c r="BG410">
+        <v>5</v>
+      </c>
+      <c r="BH410">
+        <v>7</v>
+      </c>
+      <c r="BI410">
+        <v>6</v>
+      </c>
+      <c r="BJ410">
+        <v>11</v>
+      </c>
+      <c r="BK410">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" spans="1:63">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>5556922</v>
+      </c>
+      <c r="C411" t="s">
+        <v>63</v>
+      </c>
+      <c r="D411" t="s">
+        <v>64</v>
+      </c>
+      <c r="E411" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F411">
+        <v>13</v>
+      </c>
+      <c r="G411" t="s">
+        <v>88</v>
+      </c>
+      <c r="H411" t="s">
+        <v>107</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>2</v>
+      </c>
+      <c r="M411">
+        <v>1</v>
+      </c>
+      <c r="N411">
+        <v>3</v>
+      </c>
+      <c r="O411" t="s">
+        <v>369</v>
+      </c>
+      <c r="P411" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q411">
+        <v>3</v>
+      </c>
+      <c r="R411">
+        <v>4</v>
+      </c>
+      <c r="S411">
+        <v>7</v>
+      </c>
+      <c r="T411">
+        <v>5</v>
+      </c>
+      <c r="U411">
+        <v>2.1</v>
+      </c>
+      <c r="V411">
+        <v>2.25</v>
+      </c>
+      <c r="W411">
+        <v>1.41</v>
+      </c>
+      <c r="X411">
+        <v>2.7</v>
+      </c>
+      <c r="Y411">
+        <v>2.9</v>
+      </c>
+      <c r="Z411">
+        <v>1.36</v>
+      </c>
+      <c r="AA411">
+        <v>7.5</v>
+      </c>
+      <c r="AB411">
+        <v>1.06</v>
+      </c>
+      <c r="AC411">
+        <v>4.75</v>
+      </c>
+      <c r="AD411">
+        <v>3.5</v>
+      </c>
+      <c r="AE411">
+        <v>1.65</v>
+      </c>
+      <c r="AF411">
+        <v>1.03</v>
+      </c>
+      <c r="AG411">
+        <v>9</v>
+      </c>
+      <c r="AH411">
+        <v>1.34</v>
+      </c>
+      <c r="AI411">
+        <v>3</v>
+      </c>
+      <c r="AJ411">
+        <v>2.05</v>
+      </c>
+      <c r="AK411">
+        <v>1.69</v>
+      </c>
+      <c r="AL411">
+        <v>2.01</v>
+      </c>
+      <c r="AM411">
+        <v>1.76</v>
+      </c>
+      <c r="AN411">
+        <v>2.1</v>
+      </c>
+      <c r="AO411">
+        <v>1.27</v>
+      </c>
+      <c r="AP411">
+        <v>1.14</v>
+      </c>
+      <c r="AQ411">
+        <v>1.33</v>
+      </c>
+      <c r="AR411">
+        <v>2.33</v>
+      </c>
+      <c r="AS411">
+        <v>1.57</v>
+      </c>
+      <c r="AT411">
+        <v>2</v>
+      </c>
+      <c r="AU411">
+        <v>1.29</v>
+      </c>
+      <c r="AV411">
+        <v>1.36</v>
+      </c>
+      <c r="AW411">
+        <v>2.65</v>
+      </c>
+      <c r="AX411">
+        <v>0</v>
+      </c>
+      <c r="AY411">
+        <v>0</v>
+      </c>
+      <c r="AZ411">
+        <v>0</v>
+      </c>
+      <c r="BA411">
+        <v>0</v>
+      </c>
+      <c r="BB411">
+        <v>0</v>
+      </c>
+      <c r="BC411">
+        <v>2.38</v>
+      </c>
+      <c r="BD411">
+        <v>0</v>
+      </c>
+      <c r="BE411">
+        <v>0</v>
+      </c>
+      <c r="BF411">
+        <v>4</v>
+      </c>
+      <c r="BG411">
+        <v>5</v>
+      </c>
+      <c r="BH411">
+        <v>10</v>
+      </c>
+      <c r="BI411">
+        <v>4</v>
+      </c>
+      <c r="BJ411">
+        <v>14</v>
+      </c>
+      <c r="BK411">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:63">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>5556923</v>
+      </c>
+      <c r="C412" t="s">
+        <v>63</v>
+      </c>
+      <c r="D412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E412" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F412">
+        <v>13</v>
+      </c>
+      <c r="G412" t="s">
+        <v>89</v>
+      </c>
+      <c r="H412" t="s">
+        <v>124</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>1</v>
+      </c>
+      <c r="K412">
+        <v>1</v>
+      </c>
+      <c r="L412">
+        <v>2</v>
+      </c>
+      <c r="M412">
+        <v>2</v>
+      </c>
+      <c r="N412">
+        <v>4</v>
+      </c>
+      <c r="O412" t="s">
+        <v>370</v>
+      </c>
+      <c r="P412" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q412">
+        <v>9</v>
+      </c>
+      <c r="R412">
+        <v>1</v>
+      </c>
+      <c r="S412">
+        <v>10</v>
+      </c>
+      <c r="T412">
+        <v>3</v>
+      </c>
+      <c r="U412">
+        <v>2</v>
+      </c>
+      <c r="V412">
+        <v>3.6</v>
+      </c>
+      <c r="W412">
+        <v>1.46</v>
+      </c>
+      <c r="X412">
+        <v>2.5</v>
+      </c>
+      <c r="Y412">
+        <v>3.1</v>
+      </c>
+      <c r="Z412">
+        <v>1.31</v>
+      </c>
+      <c r="AA412">
+        <v>8.5</v>
+      </c>
+      <c r="AB412">
+        <v>1.04</v>
+      </c>
+      <c r="AC412">
+        <v>1.88</v>
+      </c>
+      <c r="AD412">
+        <v>3.2</v>
+      </c>
+      <c r="AE412">
+        <v>3.6</v>
+      </c>
+      <c r="AF412">
+        <v>1.05</v>
+      </c>
+      <c r="AG412">
+        <v>8</v>
+      </c>
+      <c r="AH412">
+        <v>1.41</v>
+      </c>
+      <c r="AI412">
+        <v>2.7</v>
+      </c>
+      <c r="AJ412">
+        <v>2.33</v>
+      </c>
+      <c r="AK412">
+        <v>1.55</v>
+      </c>
+      <c r="AL412">
+        <v>2.01</v>
+      </c>
+      <c r="AM412">
+        <v>1.76</v>
+      </c>
+      <c r="AN412">
+        <v>1.24</v>
+      </c>
+      <c r="AO412">
+        <v>1.34</v>
+      </c>
+      <c r="AP412">
+        <v>1.69</v>
+      </c>
+      <c r="AQ412">
+        <v>1.33</v>
+      </c>
+      <c r="AR412">
+        <v>1.5</v>
+      </c>
+      <c r="AS412">
+        <v>1.29</v>
+      </c>
+      <c r="AT412">
+        <v>1.43</v>
+      </c>
+      <c r="AU412">
+        <v>1.5</v>
+      </c>
+      <c r="AV412">
+        <v>1.38</v>
+      </c>
+      <c r="AW412">
+        <v>2.88</v>
+      </c>
+      <c r="AX412">
+        <v>0</v>
+      </c>
+      <c r="AY412">
+        <v>0</v>
+      </c>
+      <c r="AZ412">
+        <v>0</v>
+      </c>
+      <c r="BA412">
+        <v>0</v>
+      </c>
+      <c r="BB412">
+        <v>0</v>
+      </c>
+      <c r="BC412">
+        <v>0</v>
+      </c>
+      <c r="BD412">
+        <v>0</v>
+      </c>
+      <c r="BE412">
+        <v>1.93</v>
+      </c>
+      <c r="BF412">
+        <v>9</v>
+      </c>
+      <c r="BG412">
+        <v>7</v>
+      </c>
+      <c r="BH412">
+        <v>4</v>
+      </c>
+      <c r="BI412">
+        <v>4</v>
+      </c>
+      <c r="BJ412">
+        <v>13</v>
+      </c>
+      <c r="BK412">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="413" spans="1:63">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>5557092</v>
+      </c>
+      <c r="C413" t="s">
+        <v>63</v>
+      </c>
+      <c r="D413" t="s">
+        <v>64</v>
+      </c>
+      <c r="E413" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F413">
+        <v>13</v>
+      </c>
+      <c r="G413" t="s">
+        <v>73</v>
+      </c>
+      <c r="H413" t="s">
+        <v>103</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>0</v>
+      </c>
+      <c r="M413">
+        <v>0</v>
+      </c>
+      <c r="N413">
+        <v>0</v>
+      </c>
+      <c r="O413" t="s">
+        <v>135</v>
+      </c>
+      <c r="P413" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q413">
+        <v>-1</v>
+      </c>
+      <c r="R413">
+        <v>-1</v>
+      </c>
+      <c r="S413">
+        <v>-1</v>
+      </c>
+      <c r="T413">
+        <v>4.11</v>
+      </c>
+      <c r="U413">
+        <v>1.81</v>
+      </c>
+      <c r="V413">
+        <v>3.24</v>
+      </c>
+      <c r="W413">
+        <v>1.58</v>
+      </c>
+      <c r="X413">
+        <v>2.23</v>
+      </c>
+      <c r="Y413">
+        <v>3.8</v>
+      </c>
+      <c r="Z413">
+        <v>1.22</v>
+      </c>
+      <c r="AA413">
+        <v>11</v>
+      </c>
+      <c r="AB413">
+        <v>1.01</v>
+      </c>
+      <c r="AC413">
+        <v>2.3</v>
+      </c>
+      <c r="AD413">
+        <v>2.7</v>
+      </c>
+      <c r="AE413">
+        <v>3.25</v>
+      </c>
+      <c r="AF413">
+        <v>1.11</v>
+      </c>
+      <c r="AG413">
+        <v>5.5</v>
+      </c>
+      <c r="AH413">
+        <v>1.57</v>
+      </c>
+      <c r="AI413">
+        <v>2.26</v>
+      </c>
+      <c r="AJ413">
+        <v>1.57</v>
+      </c>
+      <c r="AK413">
+        <v>2.19</v>
+      </c>
+      <c r="AL413">
+        <v>2.21</v>
+      </c>
+      <c r="AM413">
+        <v>1.63</v>
+      </c>
+      <c r="AN413">
+        <v>1.48</v>
+      </c>
+      <c r="AO413">
+        <v>1.36</v>
+      </c>
+      <c r="AP413">
+        <v>1.33</v>
+      </c>
+      <c r="AQ413">
+        <v>1</v>
+      </c>
+      <c r="AR413">
+        <v>1.33</v>
+      </c>
+      <c r="AS413">
+        <v>1</v>
+      </c>
+      <c r="AT413">
+        <v>1.29</v>
+      </c>
+      <c r="AU413">
+        <v>2.04</v>
+      </c>
+      <c r="AV413">
+        <v>1.42</v>
+      </c>
+      <c r="AW413">
+        <v>3.46</v>
+      </c>
+      <c r="AX413">
+        <v>0</v>
+      </c>
+      <c r="AY413">
+        <v>0</v>
+      </c>
+      <c r="AZ413">
+        <v>0</v>
+      </c>
+      <c r="BA413">
+        <v>0</v>
+      </c>
+      <c r="BB413">
+        <v>0</v>
+      </c>
+      <c r="BC413">
+        <v>0</v>
+      </c>
+      <c r="BD413">
+        <v>0</v>
+      </c>
+      <c r="BE413">
+        <v>0</v>
+      </c>
+      <c r="BF413">
+        <v>-1</v>
+      </c>
+      <c r="BG413">
+        <v>-1</v>
+      </c>
+      <c r="BH413">
+        <v>-1</v>
+      </c>
+      <c r="BI413">
+        <v>-1</v>
+      </c>
+      <c r="BJ413">
+        <v>-1</v>
+      </c>
+      <c r="BK413">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:63">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>5557145</v>
+      </c>
+      <c r="C414" t="s">
+        <v>63</v>
+      </c>
+      <c r="D414" t="s">
+        <v>64</v>
+      </c>
+      <c r="E414" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F414">
+        <v>13</v>
+      </c>
+      <c r="G414" t="s">
+        <v>86</v>
+      </c>
+      <c r="H414" t="s">
+        <v>106</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>3</v>
+      </c>
+      <c r="K414">
+        <v>3</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+      <c r="M414">
+        <v>4</v>
+      </c>
+      <c r="N414">
+        <v>4</v>
+      </c>
+      <c r="O414" t="s">
+        <v>135</v>
+      </c>
+      <c r="P414" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q414">
+        <v>-1</v>
+      </c>
+      <c r="R414">
+        <v>-1</v>
+      </c>
+      <c r="S414">
+        <v>-1</v>
+      </c>
+      <c r="T414">
+        <v>3.85</v>
+      </c>
+      <c r="U414">
+        <v>1.87</v>
+      </c>
+      <c r="V414">
+        <v>3.22</v>
+      </c>
+      <c r="W414">
+        <v>1.53</v>
+      </c>
+      <c r="X414">
+        <v>2.34</v>
+      </c>
+      <c r="Y414">
+        <v>3.5</v>
+      </c>
+      <c r="Z414">
+        <v>1.25</v>
+      </c>
+      <c r="AA414">
+        <v>10</v>
+      </c>
+      <c r="AB414">
+        <v>1.02</v>
+      </c>
+      <c r="AC414">
+        <v>2.55</v>
+      </c>
+      <c r="AD414">
+        <v>2.7</v>
+      </c>
+      <c r="AE414">
+        <v>2.88</v>
+      </c>
+      <c r="AF414">
+        <v>1.1</v>
+      </c>
+      <c r="AG414">
+        <v>5.8</v>
+      </c>
+      <c r="AH414">
+        <v>1.49</v>
+      </c>
+      <c r="AI414">
+        <v>2.44</v>
+      </c>
+      <c r="AJ414">
+        <v>1.49</v>
+      </c>
+      <c r="AK414">
+        <v>2.37</v>
+      </c>
+      <c r="AL414">
+        <v>2.07</v>
+      </c>
+      <c r="AM414">
+        <v>1.72</v>
+      </c>
+      <c r="AN414">
+        <v>1.47</v>
+      </c>
+      <c r="AO414">
+        <v>1.34</v>
+      </c>
+      <c r="AP414">
+        <v>1.36</v>
+      </c>
+      <c r="AQ414">
+        <v>1.33</v>
+      </c>
+      <c r="AR414">
+        <v>0.83</v>
+      </c>
+      <c r="AS414">
+        <v>1.14</v>
+      </c>
+      <c r="AT414">
+        <v>1.14</v>
+      </c>
+      <c r="AU414">
+        <v>1.53</v>
+      </c>
+      <c r="AV414">
+        <v>1.49</v>
+      </c>
+      <c r="AW414">
+        <v>3.02</v>
+      </c>
+      <c r="AX414">
+        <v>0</v>
+      </c>
+      <c r="AY414">
+        <v>0</v>
+      </c>
+      <c r="AZ414">
+        <v>0</v>
+      </c>
+      <c r="BA414">
+        <v>0</v>
+      </c>
+      <c r="BB414">
+        <v>0</v>
+      </c>
+      <c r="BC414">
+        <v>0</v>
+      </c>
+      <c r="BD414">
+        <v>0</v>
+      </c>
+      <c r="BE414">
+        <v>0</v>
+      </c>
+      <c r="BF414">
+        <v>-1</v>
+      </c>
+      <c r="BG414">
+        <v>-1</v>
+      </c>
+      <c r="BH414">
+        <v>-1</v>
+      </c>
+      <c r="BI414">
+        <v>-1</v>
+      </c>
+      <c r="BJ414">
+        <v>-1</v>
+      </c>
+      <c r="BK414">
         <v>-1</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie D_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="482">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1129,6 +1129,12 @@
     <t>['59', '77']</t>
   </si>
   <si>
+    <t>['13', '19', '30', '38', '45+11', '78']</t>
+  </si>
+  <si>
+    <t>['35', '40']</t>
+  </si>
+  <si>
     <t>['22', '38']</t>
   </si>
   <si>
@@ -1451,6 +1457,9 @@
   </si>
   <si>
     <t>['27', '31', '42', '72']</t>
+  </si>
+  <si>
+    <t>['45+1', '77', '80']</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK414"/>
+  <dimension ref="A1:BK417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2056,7 +2065,7 @@
         <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2337,7 +2346,7 @@
         <v>1.86</v>
       </c>
       <c r="AT3">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -3202,7 +3211,7 @@
         <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -3393,7 +3402,7 @@
         <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -3584,7 +3593,7 @@
         <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3966,7 +3975,7 @@
         <v>137</v>
       </c>
       <c r="P12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -4348,7 +4357,7 @@
         <v>138</v>
       </c>
       <c r="P14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4539,7 +4548,7 @@
         <v>139</v>
       </c>
       <c r="P15" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4921,7 +4930,7 @@
         <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -5303,7 +5312,7 @@
         <v>143</v>
       </c>
       <c r="P19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -5393,7 +5402,7 @@
         <v>1.43</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5685,7 +5694,7 @@
         <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -6348,7 +6357,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6640,7 +6649,7 @@
         <v>149</v>
       </c>
       <c r="P26" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q26">
         <v>11</v>
@@ -6831,7 +6840,7 @@
         <v>150</v>
       </c>
       <c r="P27" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -7404,7 +7413,7 @@
         <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7682,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT31">
         <v>0.57</v>
@@ -7977,7 +7986,7 @@
         <v>155</v>
       </c>
       <c r="P33" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -8064,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -9696,7 +9705,7 @@
         <v>161</v>
       </c>
       <c r="P42" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q42">
         <v>-1</v>
@@ -10078,7 +10087,7 @@
         <v>163</v>
       </c>
       <c r="P44" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -10269,7 +10278,7 @@
         <v>164</v>
       </c>
       <c r="P45" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10460,7 +10469,7 @@
         <v>135</v>
       </c>
       <c r="P46" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -11033,7 +11042,7 @@
         <v>167</v>
       </c>
       <c r="P49" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q49">
         <v>-1</v>
@@ -11224,7 +11233,7 @@
         <v>168</v>
       </c>
       <c r="P50" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -12370,7 +12379,7 @@
         <v>173</v>
       </c>
       <c r="P56" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q56">
         <v>-1</v>
@@ -12561,7 +12570,7 @@
         <v>174</v>
       </c>
       <c r="P57" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12752,7 +12761,7 @@
         <v>135</v>
       </c>
       <c r="P58" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12943,7 +12952,7 @@
         <v>175</v>
       </c>
       <c r="P59" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q59">
         <v>7</v>
@@ -13325,7 +13334,7 @@
         <v>176</v>
       </c>
       <c r="P61" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q61">
         <v>15</v>
@@ -14853,7 +14862,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -15325,7 +15334,7 @@
         <v>2.71</v>
       </c>
       <c r="AT71">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU71">
         <v>2.27</v>
@@ -15999,7 +16008,7 @@
         <v>185</v>
       </c>
       <c r="P75" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -16572,7 +16581,7 @@
         <v>187</v>
       </c>
       <c r="P78" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -17336,7 +17345,7 @@
         <v>190</v>
       </c>
       <c r="P82" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -17426,7 +17435,7 @@
         <v>2.71</v>
       </c>
       <c r="AT82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU82">
         <v>1.77</v>
@@ -17718,7 +17727,7 @@
         <v>192</v>
       </c>
       <c r="P84" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -18100,7 +18109,7 @@
         <v>160</v>
       </c>
       <c r="P86" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -20097,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT96">
         <v>1.29</v>
@@ -20288,7 +20297,7 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT97">
         <v>1.86</v>
@@ -20583,7 +20592,7 @@
         <v>200</v>
       </c>
       <c r="P99" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20774,7 +20783,7 @@
         <v>201</v>
       </c>
       <c r="P100" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20864,7 +20873,7 @@
         <v>1.83</v>
       </c>
       <c r="AT100">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU100">
         <v>0.95</v>
@@ -20965,7 +20974,7 @@
         <v>202</v>
       </c>
       <c r="P101" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q101">
         <v>1</v>
@@ -22111,7 +22120,7 @@
         <v>206</v>
       </c>
       <c r="P107" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22493,7 +22502,7 @@
         <v>208</v>
       </c>
       <c r="P109" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -23066,7 +23075,7 @@
         <v>211</v>
       </c>
       <c r="P112" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -24493,7 +24502,7 @@
         <v>1</v>
       </c>
       <c r="AT119">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU119">
         <v>0</v>
@@ -24594,7 +24603,7 @@
         <v>216</v>
       </c>
       <c r="P120" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24785,7 +24794,7 @@
         <v>217</v>
       </c>
       <c r="P121" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -25358,7 +25367,7 @@
         <v>219</v>
       </c>
       <c r="P124" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26695,7 +26704,7 @@
         <v>135</v>
       </c>
       <c r="P131" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -27077,7 +27086,7 @@
         <v>226</v>
       </c>
       <c r="P133" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -27841,7 +27850,7 @@
         <v>135</v>
       </c>
       <c r="P137" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q137">
         <v>12</v>
@@ -28414,7 +28423,7 @@
         <v>229</v>
       </c>
       <c r="P140" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -29178,7 +29187,7 @@
         <v>135</v>
       </c>
       <c r="P144" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -30223,7 +30232,7 @@
         <v>1.57</v>
       </c>
       <c r="AT149">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU149">
         <v>1.4</v>
@@ -31470,7 +31479,7 @@
         <v>237</v>
       </c>
       <c r="P156" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -31661,7 +31670,7 @@
         <v>238</v>
       </c>
       <c r="P157" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q157">
         <v>5</v>
@@ -31748,7 +31757,7 @@
         <v>0</v>
       </c>
       <c r="AS157">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT157">
         <v>0.43</v>
@@ -31852,7 +31861,7 @@
         <v>239</v>
       </c>
       <c r="P158" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -32043,7 +32052,7 @@
         <v>153</v>
       </c>
       <c r="P159" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q159">
         <v>10</v>
@@ -32130,7 +32139,7 @@
         <v>0</v>
       </c>
       <c r="AS159">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT159">
         <v>1.29</v>
@@ -32234,7 +32243,7 @@
         <v>135</v>
       </c>
       <c r="P160" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -32515,7 +32524,7 @@
         <v>1</v>
       </c>
       <c r="AT161">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU161">
         <v>0.79</v>
@@ -33762,7 +33771,7 @@
         <v>135</v>
       </c>
       <c r="P168" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33953,7 +33962,7 @@
         <v>243</v>
       </c>
       <c r="P169" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q169">
         <v>8</v>
@@ -34144,7 +34153,7 @@
         <v>244</v>
       </c>
       <c r="P170" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -34526,7 +34535,7 @@
         <v>246</v>
       </c>
       <c r="P172" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34908,7 +34917,7 @@
         <v>135</v>
       </c>
       <c r="P174" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -34998,7 +35007,7 @@
         <v>0.5</v>
       </c>
       <c r="AT174">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU174">
         <v>1.59</v>
@@ -35099,7 +35108,7 @@
         <v>135</v>
       </c>
       <c r="P175" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35481,7 +35490,7 @@
         <v>249</v>
       </c>
       <c r="P177" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35672,7 +35681,7 @@
         <v>135</v>
       </c>
       <c r="P178" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35863,7 +35872,7 @@
         <v>135</v>
       </c>
       <c r="P179" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q179">
         <v>19</v>
@@ -36054,7 +36063,7 @@
         <v>250</v>
       </c>
       <c r="P180" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -37009,7 +37018,7 @@
         <v>253</v>
       </c>
       <c r="P185" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -37200,7 +37209,7 @@
         <v>254</v>
       </c>
       <c r="P186" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -38051,7 +38060,7 @@
         <v>0</v>
       </c>
       <c r="AS190">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT190">
         <v>0.17</v>
@@ -38155,7 +38164,7 @@
         <v>257</v>
       </c>
       <c r="P191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38919,7 +38928,7 @@
         <v>260</v>
       </c>
       <c r="P195" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q195">
         <v>12</v>
@@ -39492,7 +39501,7 @@
         <v>263</v>
       </c>
       <c r="P198" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -41301,7 +41310,7 @@
         <v>2.67</v>
       </c>
       <c r="AT207">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU207">
         <v>1.88</v>
@@ -41402,7 +41411,7 @@
         <v>271</v>
       </c>
       <c r="P208" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q208">
         <v>13</v>
@@ -41593,7 +41602,7 @@
         <v>135</v>
       </c>
       <c r="P209" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41784,7 +41793,7 @@
         <v>272</v>
       </c>
       <c r="P210" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q210">
         <v>9</v>
@@ -42166,7 +42175,7 @@
         <v>273</v>
       </c>
       <c r="P212" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -42635,7 +42644,7 @@
         <v>2</v>
       </c>
       <c r="AS214">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT214">
         <v>1.5</v>
@@ -42930,7 +42939,7 @@
         <v>135</v>
       </c>
       <c r="P216" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q216">
         <v>10</v>
@@ -43784,7 +43793,7 @@
         <v>1.67</v>
       </c>
       <c r="AT220">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU220">
         <v>1.29</v>
@@ -44840,7 +44849,7 @@
         <v>279</v>
       </c>
       <c r="P226" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q226">
         <v>2</v>
@@ -45413,7 +45422,7 @@
         <v>135</v>
       </c>
       <c r="P229" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -46177,7 +46186,7 @@
         <v>135</v>
       </c>
       <c r="P233" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q233">
         <v>16</v>
@@ -46458,7 +46467,7 @@
         <v>2.17</v>
       </c>
       <c r="AT234">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU234">
         <v>1.93</v>
@@ -46559,7 +46568,7 @@
         <v>135</v>
       </c>
       <c r="P235" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -47705,7 +47714,7 @@
         <v>135</v>
       </c>
       <c r="P241" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -48469,7 +48478,7 @@
         <v>135</v>
       </c>
       <c r="P245" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q245">
         <v>1</v>
@@ -48556,7 +48565,7 @@
         <v>1.33</v>
       </c>
       <c r="AS245">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT245">
         <v>1.33</v>
@@ -48660,7 +48669,7 @@
         <v>289</v>
       </c>
       <c r="P246" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q246">
         <v>9</v>
@@ -49233,7 +49242,7 @@
         <v>290</v>
       </c>
       <c r="P249" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q249">
         <v>6</v>
@@ -49615,7 +49624,7 @@
         <v>135</v>
       </c>
       <c r="P251" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q251">
         <v>7</v>
@@ -50188,7 +50197,7 @@
         <v>270</v>
       </c>
       <c r="P254" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50379,7 +50388,7 @@
         <v>293</v>
       </c>
       <c r="P255" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q255">
         <v>10</v>
@@ -50952,7 +50961,7 @@
         <v>135</v>
       </c>
       <c r="P258" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -51143,7 +51152,7 @@
         <v>296</v>
       </c>
       <c r="P259" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -52480,7 +52489,7 @@
         <v>299</v>
       </c>
       <c r="P266" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q266">
         <v>2</v>
@@ -52570,7 +52579,7 @@
         <v>1.5</v>
       </c>
       <c r="AT266">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU266">
         <v>1.77</v>
@@ -53626,7 +53635,7 @@
         <v>302</v>
       </c>
       <c r="P272" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q272">
         <v>5</v>
@@ -53907,7 +53916,7 @@
         <v>1.83</v>
       </c>
       <c r="AT273">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU273">
         <v>1.67</v>
@@ -54008,7 +54017,7 @@
         <v>135</v>
       </c>
       <c r="P274" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54390,7 +54399,7 @@
         <v>213</v>
       </c>
       <c r="P276" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q276">
         <v>11</v>
@@ -55536,7 +55545,7 @@
         <v>135</v>
       </c>
       <c r="P282" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q282">
         <v>2</v>
@@ -56769,7 +56778,7 @@
         <v>0</v>
       </c>
       <c r="AS288">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT288">
         <v>0.17</v>
@@ -57154,7 +57163,7 @@
         <v>1.29</v>
       </c>
       <c r="AT290">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU290">
         <v>1.42</v>
@@ -58019,7 +58028,7 @@
         <v>302</v>
       </c>
       <c r="P295" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q295">
         <v>7</v>
@@ -58592,7 +58601,7 @@
         <v>314</v>
       </c>
       <c r="P298" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q298">
         <v>5</v>
@@ -58974,7 +58983,7 @@
         <v>135</v>
       </c>
       <c r="P300" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q300">
         <v>5</v>
@@ -59165,7 +59174,7 @@
         <v>135</v>
       </c>
       <c r="P301" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q301">
         <v>3</v>
@@ -59547,7 +59556,7 @@
         <v>315</v>
       </c>
       <c r="P303" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q303">
         <v>9</v>
@@ -60311,7 +60320,7 @@
         <v>135</v>
       </c>
       <c r="P307" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -61266,7 +61275,7 @@
         <v>319</v>
       </c>
       <c r="P312" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q312">
         <v>0</v>
@@ -61648,7 +61657,7 @@
         <v>198</v>
       </c>
       <c r="P314" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q314">
         <v>1</v>
@@ -62030,7 +62039,7 @@
         <v>321</v>
       </c>
       <c r="P316" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q316">
         <v>6</v>
@@ -62794,7 +62803,7 @@
         <v>323</v>
       </c>
       <c r="P320" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q320">
         <v>5</v>
@@ -63176,7 +63185,7 @@
         <v>163</v>
       </c>
       <c r="P322" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q322">
         <v>10</v>
@@ -64704,7 +64713,7 @@
         <v>265</v>
       </c>
       <c r="P330" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q330">
         <v>6</v>
@@ -65468,7 +65477,7 @@
         <v>332</v>
       </c>
       <c r="P334" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q334">
         <v>6</v>
@@ -65940,7 +65949,7 @@
         <v>1.83</v>
       </c>
       <c r="AT336">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU336">
         <v>1.86</v>
@@ -66423,7 +66432,7 @@
         <v>334</v>
       </c>
       <c r="P339" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q339">
         <v>9</v>
@@ -66614,7 +66623,7 @@
         <v>335</v>
       </c>
       <c r="P340" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q340">
         <v>14</v>
@@ -66996,7 +67005,7 @@
         <v>135</v>
       </c>
       <c r="P342" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q342">
         <v>6</v>
@@ -67187,7 +67196,7 @@
         <v>135</v>
       </c>
       <c r="P343" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q343">
         <v>-1</v>
@@ -68333,7 +68342,7 @@
         <v>135</v>
       </c>
       <c r="P349" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q349">
         <v>6</v>
@@ -68611,7 +68620,7 @@
         <v>1.25</v>
       </c>
       <c r="AS350">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT350">
         <v>1.5</v>
@@ -68715,7 +68724,7 @@
         <v>339</v>
       </c>
       <c r="P351" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q351">
         <v>0</v>
@@ -68906,7 +68915,7 @@
         <v>158</v>
       </c>
       <c r="P352" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q352">
         <v>11</v>
@@ -69097,7 +69106,7 @@
         <v>340</v>
       </c>
       <c r="P353" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q353">
         <v>5</v>
@@ -69184,7 +69193,7 @@
         <v>0.8</v>
       </c>
       <c r="AS353">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT353">
         <v>0.67</v>
@@ -70434,7 +70443,7 @@
         <v>221</v>
       </c>
       <c r="P360" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q360">
         <v>2</v>
@@ -70816,7 +70825,7 @@
         <v>265</v>
       </c>
       <c r="P362" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q362">
         <v>6</v>
@@ -71097,7 +71106,7 @@
         <v>2.14</v>
       </c>
       <c r="AT363">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU363">
         <v>2.24</v>
@@ -71580,7 +71589,7 @@
         <v>259</v>
       </c>
       <c r="P366" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q366">
         <v>5</v>
@@ -71771,7 +71780,7 @@
         <v>344</v>
       </c>
       <c r="P367" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q367">
         <v>7</v>
@@ -73490,7 +73499,7 @@
         <v>166</v>
       </c>
       <c r="P376" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q376">
         <v>6</v>
@@ -73872,7 +73881,7 @@
         <v>252</v>
       </c>
       <c r="P378" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q378">
         <v>-1</v>
@@ -74063,7 +74072,7 @@
         <v>135</v>
       </c>
       <c r="P379" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q379">
         <v>-1</v>
@@ -74254,7 +74263,7 @@
         <v>135</v>
       </c>
       <c r="P380" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q380">
         <v>10</v>
@@ -74636,7 +74645,7 @@
         <v>351</v>
       </c>
       <c r="P382" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q382">
         <v>5</v>
@@ -74827,7 +74836,7 @@
         <v>352</v>
       </c>
       <c r="P383" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q383">
         <v>7</v>
@@ -75973,7 +75982,7 @@
         <v>135</v>
       </c>
       <c r="P389" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q389">
         <v>-1</v>
@@ -76928,7 +76937,7 @@
         <v>160</v>
       </c>
       <c r="P394" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q394">
         <v>10</v>
@@ -77883,7 +77892,7 @@
         <v>219</v>
       </c>
       <c r="P399" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q399">
         <v>4</v>
@@ -78459,13 +78468,13 @@
         <v>267</v>
       </c>
       <c r="Q402">
+        <v>6</v>
+      </c>
+      <c r="R402">
         <v>4</v>
       </c>
-      <c r="R402">
-        <v>3</v>
-      </c>
       <c r="S402">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T402">
         <v>8.1</v>
@@ -79029,16 +79038,16 @@
         <v>364</v>
       </c>
       <c r="P405" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q405">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R405">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S405">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T405">
         <v>5.25</v>
@@ -79223,13 +79232,13 @@
         <v>129</v>
       </c>
       <c r="Q406">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R406">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S406">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T406">
         <v>2.6</v>
@@ -79602,7 +79611,7 @@
         <v>366</v>
       </c>
       <c r="P408" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q408">
         <v>-1</v>
@@ -79793,7 +79802,7 @@
         <v>367</v>
       </c>
       <c r="P409" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q409">
         <v>2</v>
@@ -80366,7 +80375,7 @@
         <v>370</v>
       </c>
       <c r="P412" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q412">
         <v>9</v>
@@ -80748,16 +80757,16 @@
         <v>135</v>
       </c>
       <c r="P414" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q414">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R414">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S414">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T414">
         <v>3.85</v>
@@ -80890,6 +80899,579 @@
       </c>
       <c r="BK414">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:63">
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>5556809</v>
+      </c>
+      <c r="C415" t="s">
+        <v>63</v>
+      </c>
+      <c r="D415" t="s">
+        <v>64</v>
+      </c>
+      <c r="E415" s="2">
+        <v>45123.70833333334</v>
+      </c>
+      <c r="F415">
+        <v>13</v>
+      </c>
+      <c r="G415" t="s">
+        <v>92</v>
+      </c>
+      <c r="H415" t="s">
+        <v>109</v>
+      </c>
+      <c r="I415">
+        <v>5</v>
+      </c>
+      <c r="J415">
+        <v>1</v>
+      </c>
+      <c r="K415">
+        <v>6</v>
+      </c>
+      <c r="L415">
+        <v>6</v>
+      </c>
+      <c r="M415">
+        <v>1</v>
+      </c>
+      <c r="N415">
+        <v>7</v>
+      </c>
+      <c r="O415" t="s">
+        <v>371</v>
+      </c>
+      <c r="P415" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q415">
+        <v>2</v>
+      </c>
+      <c r="R415">
+        <v>2</v>
+      </c>
+      <c r="S415">
+        <v>4</v>
+      </c>
+      <c r="T415">
+        <v>1.8</v>
+      </c>
+      <c r="U415">
+        <v>2.3</v>
+      </c>
+      <c r="V415">
+        <v>8</v>
+      </c>
+      <c r="W415">
+        <v>1.36</v>
+      </c>
+      <c r="X415">
+        <v>2.88</v>
+      </c>
+      <c r="Y415">
+        <v>2.55</v>
+      </c>
+      <c r="Z415">
+        <v>1.46</v>
+      </c>
+      <c r="AA415">
+        <v>5.8</v>
+      </c>
+      <c r="AB415">
+        <v>1.1</v>
+      </c>
+      <c r="AC415">
+        <v>1.28</v>
+      </c>
+      <c r="AD415">
+        <v>4.75</v>
+      </c>
+      <c r="AE415">
+        <v>7.8</v>
+      </c>
+      <c r="AF415">
+        <v>1.04</v>
+      </c>
+      <c r="AG415">
+        <v>10.75</v>
+      </c>
+      <c r="AH415">
+        <v>1.25</v>
+      </c>
+      <c r="AI415">
+        <v>3.6</v>
+      </c>
+      <c r="AJ415">
+        <v>1.81</v>
+      </c>
+      <c r="AK415">
+        <v>1.92</v>
+      </c>
+      <c r="AL415">
+        <v>2.15</v>
+      </c>
+      <c r="AM415">
+        <v>1.63</v>
+      </c>
+      <c r="AN415">
+        <v>1.03</v>
+      </c>
+      <c r="AO415">
+        <v>1.12</v>
+      </c>
+      <c r="AP415">
+        <v>2.8</v>
+      </c>
+      <c r="AQ415">
+        <v>3</v>
+      </c>
+      <c r="AR415">
+        <v>0.5</v>
+      </c>
+      <c r="AS415">
+        <v>3</v>
+      </c>
+      <c r="AT415">
+        <v>0.43</v>
+      </c>
+      <c r="AU415">
+        <v>1.97</v>
+      </c>
+      <c r="AV415">
+        <v>1.19</v>
+      </c>
+      <c r="AW415">
+        <v>3.16</v>
+      </c>
+      <c r="AX415">
+        <v>0</v>
+      </c>
+      <c r="AY415">
+        <v>0</v>
+      </c>
+      <c r="AZ415">
+        <v>0</v>
+      </c>
+      <c r="BA415">
+        <v>0</v>
+      </c>
+      <c r="BB415">
+        <v>0</v>
+      </c>
+      <c r="BC415">
+        <v>0</v>
+      </c>
+      <c r="BD415">
+        <v>0</v>
+      </c>
+      <c r="BE415">
+        <v>0</v>
+      </c>
+      <c r="BF415">
+        <v>11</v>
+      </c>
+      <c r="BG415">
+        <v>4</v>
+      </c>
+      <c r="BH415">
+        <v>7</v>
+      </c>
+      <c r="BI415">
+        <v>7</v>
+      </c>
+      <c r="BJ415">
+        <v>18</v>
+      </c>
+      <c r="BK415">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="416" spans="1:63">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>5556755</v>
+      </c>
+      <c r="C416" t="s">
+        <v>63</v>
+      </c>
+      <c r="D416" t="s">
+        <v>64</v>
+      </c>
+      <c r="E416" s="2">
+        <v>45123.75</v>
+      </c>
+      <c r="F416">
+        <v>13</v>
+      </c>
+      <c r="G416" t="s">
+        <v>94</v>
+      </c>
+      <c r="H416" t="s">
+        <v>128</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>1</v>
+      </c>
+      <c r="K416">
+        <v>1</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+      <c r="M416">
+        <v>3</v>
+      </c>
+      <c r="N416">
+        <v>3</v>
+      </c>
+      <c r="O416" t="s">
+        <v>135</v>
+      </c>
+      <c r="P416" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q416">
+        <v>-1</v>
+      </c>
+      <c r="R416">
+        <v>-1</v>
+      </c>
+      <c r="S416">
+        <v>-1</v>
+      </c>
+      <c r="T416">
+        <v>8.6</v>
+      </c>
+      <c r="U416">
+        <v>2.66</v>
+      </c>
+      <c r="V416">
+        <v>1.63</v>
+      </c>
+      <c r="W416">
+        <v>1.39</v>
+      </c>
+      <c r="X416">
+        <v>2.77</v>
+      </c>
+      <c r="Y416">
+        <v>2.85</v>
+      </c>
+      <c r="Z416">
+        <v>1.37</v>
+      </c>
+      <c r="AA416">
+        <v>6.8</v>
+      </c>
+      <c r="AB416">
+        <v>1.07</v>
+      </c>
+      <c r="AC416">
+        <v>10.5</v>
+      </c>
+      <c r="AD416">
+        <v>4.6</v>
+      </c>
+      <c r="AE416">
+        <v>1.25</v>
+      </c>
+      <c r="AF416">
+        <v>1.04</v>
+      </c>
+      <c r="AG416">
+        <v>10.75</v>
+      </c>
+      <c r="AH416">
+        <v>1.28</v>
+      </c>
+      <c r="AI416">
+        <v>3.3</v>
+      </c>
+      <c r="AJ416">
+        <v>1.95</v>
+      </c>
+      <c r="AK416">
+        <v>1.76</v>
+      </c>
+      <c r="AL416">
+        <v>2.01</v>
+      </c>
+      <c r="AM416">
+        <v>1.76</v>
+      </c>
+      <c r="AN416">
+        <v>3.78</v>
+      </c>
+      <c r="AO416">
+        <v>1.1</v>
+      </c>
+      <c r="AP416">
+        <v>1.01</v>
+      </c>
+      <c r="AQ416">
+        <v>1</v>
+      </c>
+      <c r="AR416">
+        <v>0.5</v>
+      </c>
+      <c r="AS416">
+        <v>0.86</v>
+      </c>
+      <c r="AT416">
+        <v>0.86</v>
+      </c>
+      <c r="AU416">
+        <v>1.73</v>
+      </c>
+      <c r="AV416">
+        <v>1.16</v>
+      </c>
+      <c r="AW416">
+        <v>2.89</v>
+      </c>
+      <c r="AX416">
+        <v>0</v>
+      </c>
+      <c r="AY416">
+        <v>0</v>
+      </c>
+      <c r="AZ416">
+        <v>0</v>
+      </c>
+      <c r="BA416">
+        <v>0</v>
+      </c>
+      <c r="BB416">
+        <v>0</v>
+      </c>
+      <c r="BC416">
+        <v>0</v>
+      </c>
+      <c r="BD416">
+        <v>0</v>
+      </c>
+      <c r="BE416">
+        <v>0</v>
+      </c>
+      <c r="BF416">
+        <v>-1</v>
+      </c>
+      <c r="BG416">
+        <v>-1</v>
+      </c>
+      <c r="BH416">
+        <v>-1</v>
+      </c>
+      <c r="BI416">
+        <v>-1</v>
+      </c>
+      <c r="BJ416">
+        <v>-1</v>
+      </c>
+      <c r="BK416">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:63">
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>5557036</v>
+      </c>
+      <c r="C417" t="s">
+        <v>63</v>
+      </c>
+      <c r="D417" t="s">
+        <v>64</v>
+      </c>
+      <c r="E417" s="2">
+        <v>45124.85416666666</v>
+      </c>
+      <c r="F417">
+        <v>13</v>
+      </c>
+      <c r="G417" t="s">
+        <v>96</v>
+      </c>
+      <c r="H417" t="s">
+        <v>97</v>
+      </c>
+      <c r="I417">
+        <v>2</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>2</v>
+      </c>
+      <c r="L417">
+        <v>2</v>
+      </c>
+      <c r="M417">
+        <v>0</v>
+      </c>
+      <c r="N417">
+        <v>2</v>
+      </c>
+      <c r="O417" t="s">
+        <v>372</v>
+      </c>
+      <c r="P417" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q417">
+        <v>2</v>
+      </c>
+      <c r="R417">
+        <v>7</v>
+      </c>
+      <c r="S417">
+        <v>9</v>
+      </c>
+      <c r="T417">
+        <v>2.1</v>
+      </c>
+      <c r="U417">
+        <v>2.25</v>
+      </c>
+      <c r="V417">
+        <v>5.5</v>
+      </c>
+      <c r="W417">
+        <v>1.44</v>
+      </c>
+      <c r="X417">
+        <v>2.52</v>
+      </c>
+      <c r="Y417">
+        <v>3.09</v>
+      </c>
+      <c r="Z417">
+        <v>1.3</v>
+      </c>
+      <c r="AA417">
+        <v>8.1</v>
+      </c>
+      <c r="AB417">
+        <v>1.04</v>
+      </c>
+      <c r="AC417">
+        <v>1.5</v>
+      </c>
+      <c r="AD417">
+        <v>3.75</v>
+      </c>
+      <c r="AE417">
+        <v>5.5</v>
+      </c>
+      <c r="AF417">
+        <v>1.05</v>
+      </c>
+      <c r="AG417">
+        <v>8</v>
+      </c>
+      <c r="AH417">
+        <v>1.38</v>
+      </c>
+      <c r="AI417">
+        <v>2.8</v>
+      </c>
+      <c r="AJ417">
+        <v>1.9</v>
+      </c>
+      <c r="AK417">
+        <v>1.9</v>
+      </c>
+      <c r="AL417">
+        <v>2.05</v>
+      </c>
+      <c r="AM417">
+        <v>1.73</v>
+      </c>
+      <c r="AN417">
+        <v>1.14</v>
+      </c>
+      <c r="AO417">
+        <v>1.25</v>
+      </c>
+      <c r="AP417">
+        <v>2.04</v>
+      </c>
+      <c r="AQ417">
+        <v>2.33</v>
+      </c>
+      <c r="AR417">
+        <v>0.83</v>
+      </c>
+      <c r="AS417">
+        <v>2.43</v>
+      </c>
+      <c r="AT417">
+        <v>0.71</v>
+      </c>
+      <c r="AU417">
+        <v>1.78</v>
+      </c>
+      <c r="AV417">
+        <v>1.37</v>
+      </c>
+      <c r="AW417">
+        <v>3.15</v>
+      </c>
+      <c r="AX417">
+        <v>0</v>
+      </c>
+      <c r="AY417">
+        <v>0</v>
+      </c>
+      <c r="AZ417">
+        <v>0</v>
+      </c>
+      <c r="BA417">
+        <v>0</v>
+      </c>
+      <c r="BB417">
+        <v>0</v>
+      </c>
+      <c r="BC417">
+        <v>0</v>
+      </c>
+      <c r="BD417">
+        <v>0</v>
+      </c>
+      <c r="BE417">
+        <v>0</v>
+      </c>
+      <c r="BF417">
+        <v>5</v>
+      </c>
+      <c r="BG417">
+        <v>3</v>
+      </c>
+      <c r="BH417">
+        <v>4</v>
+      </c>
+      <c r="BI417">
+        <v>11</v>
+      </c>
+      <c r="BJ417">
+        <v>9</v>
+      </c>
+      <c r="BK417">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie D_2023.xlsx
@@ -86171,13 +86171,13 @@
         <v>499</v>
       </c>
       <c r="Q442">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R442">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S442">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T442">
         <v>3.2</v>
@@ -86362,13 +86362,13 @@
         <v>135</v>
       </c>
       <c r="Q443">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R443">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S443">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="T443">
         <v>2.16</v>
@@ -86553,13 +86553,13 @@
         <v>135</v>
       </c>
       <c r="Q444">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R444">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S444">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T444">
         <v>2.6</v>
@@ -87126,13 +87126,13 @@
         <v>500</v>
       </c>
       <c r="Q447">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R447">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S447">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T447">
         <v>3.93</v>
